--- a/migforecasting/cities19-21/1/d10.xlsx
+++ b/migforecasting/cities19-21/1/d10.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities19-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities19-21\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -5390,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BI79" sqref="BI79"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BL2" sqref="BL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5617,7 +5617,194 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2019</v>
+      </c>
+      <c r="C4">
+        <v>2019</v>
+      </c>
+      <c r="D4">
+        <v>2019</v>
+      </c>
+      <c r="E4">
+        <v>2019</v>
+      </c>
+      <c r="F4">
+        <v>2019</v>
+      </c>
+      <c r="G4">
+        <v>2019</v>
+      </c>
+      <c r="H4">
+        <v>2019</v>
+      </c>
+      <c r="I4">
+        <v>2019</v>
+      </c>
+      <c r="J4">
+        <v>2019</v>
+      </c>
+      <c r="K4">
+        <v>2019</v>
+      </c>
+      <c r="L4">
+        <v>2019</v>
+      </c>
+      <c r="M4">
+        <v>2019</v>
+      </c>
+      <c r="N4">
+        <v>2019</v>
+      </c>
+      <c r="O4">
+        <v>2019</v>
+      </c>
+      <c r="P4">
+        <v>2019</v>
+      </c>
+      <c r="Q4">
+        <v>2019</v>
+      </c>
+      <c r="R4">
+        <v>2019</v>
+      </c>
+      <c r="S4">
+        <v>2019</v>
+      </c>
+      <c r="T4">
+        <v>2019</v>
+      </c>
+      <c r="U4">
+        <v>2019</v>
+      </c>
+      <c r="V4">
+        <v>2019</v>
+      </c>
+      <c r="W4">
+        <v>2020</v>
+      </c>
+      <c r="X4">
+        <v>2020</v>
+      </c>
+      <c r="Y4">
+        <v>2020</v>
+      </c>
+      <c r="Z4">
+        <v>2020</v>
+      </c>
+      <c r="AA4">
+        <v>2020</v>
+      </c>
+      <c r="AB4">
+        <v>2020</v>
+      </c>
+      <c r="AC4">
+        <v>2020</v>
+      </c>
+      <c r="AD4">
+        <v>2020</v>
+      </c>
+      <c r="AE4">
+        <v>2020</v>
+      </c>
+      <c r="AF4">
+        <v>2020</v>
+      </c>
+      <c r="AG4">
+        <v>2020</v>
+      </c>
+      <c r="AH4">
+        <v>2020</v>
+      </c>
+      <c r="AI4">
+        <v>2020</v>
+      </c>
+      <c r="AJ4">
+        <v>2020</v>
+      </c>
+      <c r="AK4">
+        <v>2020</v>
+      </c>
+      <c r="AL4">
+        <v>2020</v>
+      </c>
+      <c r="AM4">
+        <v>2020</v>
+      </c>
+      <c r="AN4">
+        <v>2020</v>
+      </c>
+      <c r="AO4">
+        <v>2020</v>
+      </c>
+      <c r="AP4">
+        <v>2020</v>
+      </c>
+      <c r="AQ4">
+        <v>2020</v>
+      </c>
+      <c r="AR4">
+        <v>2021</v>
+      </c>
+      <c r="AS4">
+        <v>2021</v>
+      </c>
+      <c r="AT4">
+        <v>2021</v>
+      </c>
+      <c r="AU4">
+        <v>2021</v>
+      </c>
+      <c r="AV4">
+        <v>2021</v>
+      </c>
+      <c r="AW4">
+        <v>2021</v>
+      </c>
+      <c r="AX4">
+        <v>2021</v>
+      </c>
+      <c r="AY4">
+        <v>2021</v>
+      </c>
+      <c r="AZ4">
+        <v>2021</v>
+      </c>
+      <c r="BA4">
+        <v>2021</v>
+      </c>
+      <c r="BB4">
+        <v>2021</v>
+      </c>
+      <c r="BC4">
+        <v>2021</v>
+      </c>
+      <c r="BD4">
+        <v>2021</v>
+      </c>
+      <c r="BE4">
+        <v>2021</v>
+      </c>
+      <c r="BF4">
+        <v>2021</v>
+      </c>
+      <c r="BG4">
+        <v>2021</v>
+      </c>
+      <c r="BH4">
+        <v>2021</v>
+      </c>
+      <c r="BI4">
+        <v>2021</v>
+      </c>
+      <c r="BJ4">
+        <v>2021</v>
+      </c>
+      <c r="BK4">
+        <v>2021</v>
+      </c>
+    </row>
     <row r="5" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>

--- a/migforecasting/cities19-21/1/d10.xlsx
+++ b/migforecasting/cities19-21/1/d10.xlsx
@@ -64,9 +64,6 @@
     <t>Одинцово</t>
   </si>
   <si>
-    <t>Орехово- Зуево</t>
-  </si>
-  <si>
     <t>Подольск</t>
   </si>
   <si>
@@ -107,13 +104,7 @@
     <t>СОЦИАЛЬНО-ЭКОНОМИЧЕСКАЯ ХАРАКТЕРИСТИКА ГОРОДОВ  МОСКОВСКОЙ ОБЛАСТИ С ЧИСЛЕННОСТЬЮ НАСЕЛЕНИЯ  свыше 100 тысяч человек</t>
   </si>
   <si>
-    <t>Рамен-ское</t>
-  </si>
-  <si>
     <t>Сергиев  Посад</t>
-  </si>
-  <si>
-    <t>Электро- сталь</t>
   </si>
   <si>
     <t>НАСЕЛЕНИЕ</t>
@@ -4823,6 +4814,15 @@
   </si>
   <si>
     <t>1 454,5</t>
+  </si>
+  <si>
+    <t>Электросталь</t>
+  </si>
+  <si>
+    <t>Раменское</t>
+  </si>
+  <si>
+    <t>Орехово-Зуево</t>
   </si>
 </sst>
 </file>
@@ -5390,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BL2" sqref="BL2"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BL5" sqref="BL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5405,7 +5405,7 @@
     <row r="1" spans="1:65" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -5437,7 +5437,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>3</v>
@@ -5464,34 +5464,34 @@
         <v>12</v>
       </c>
       <c r="M3" s="16" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="O3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="16" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="V3" s="17" t="s">
-        <v>25</v>
+        <v>1063</v>
       </c>
       <c r="W3" s="34" t="s">
         <v>1</v>
@@ -5500,7 +5500,7 @@
         <v>2</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z3" s="16" t="s">
         <v>3</v>
@@ -5527,34 +5527,34 @@
         <v>12</v>
       </c>
       <c r="AH3" s="16" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AI3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AI3" s="16" t="s">
+      <c r="AJ3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AJ3" s="16" t="s">
+      <c r="AK3" s="16" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AL3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AK3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL3" s="16" t="s">
+      <c r="AM3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AM3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN3" s="16" t="s">
+      <c r="AO3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AO3" s="16" t="s">
+      <c r="AP3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AP3" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="AQ3" s="17" t="s">
-        <v>25</v>
+        <v>1063</v>
       </c>
       <c r="AR3" s="34" t="s">
         <v>1</v>
@@ -5563,7 +5563,7 @@
         <v>2</v>
       </c>
       <c r="AT3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU3" s="16" t="s">
         <v>3</v>
@@ -5590,31 +5590,31 @@
         <v>12</v>
       </c>
       <c r="BC3" s="16" t="s">
+        <v>1065</v>
+      </c>
+      <c r="BD3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="BD3" s="16" t="s">
+      <c r="BE3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="BE3" s="16" t="s">
+      <c r="BF3" s="16" t="s">
+        <v>1064</v>
+      </c>
+      <c r="BG3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="BF3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="BG3" s="16" t="s">
+      <c r="BH3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="BH3" s="16" t="s">
+      <c r="BI3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="BI3" s="16" t="s">
+      <c r="BJ3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="BJ3" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="BK3" s="17" t="s">
-        <v>25</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="4" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5807,7 +5807,7 @@
     </row>
     <row r="5" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="6" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="18">
         <v>507.4</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="7" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="8" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="18">
         <v>98.9</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="9" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="18">
         <v>44.4</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="10" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="18">
         <v>310</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="11" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="18">
         <v>98.5</v>
@@ -6856,7 +6856,7 @@
     </row>
     <row r="12" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="18">
         <v>10.9</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="13" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B13" s="18">
         <v>8</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="14" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="18">
         <v>2.9</v>
@@ -7429,16 +7429,16 @@
     </row>
     <row r="15" spans="1:65" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="23">
         <v>210</v>
@@ -7447,46 +7447,46 @@
         <v>-464</v>
       </c>
       <c r="G15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="K15" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>44</v>
-      </c>
       <c r="L15" s="23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M15" s="23">
         <v>779</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O15" s="23">
         <v>919</v>
       </c>
       <c r="P15" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="S15" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="T15" s="23" t="s">
         <v>94</v>
-      </c>
-      <c r="R15" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="T15" s="23" t="s">
-        <v>97</v>
       </c>
       <c r="U15" s="23">
         <v>589</v>
@@ -7498,13 +7498,13 @@
         <v>-748</v>
       </c>
       <c r="X15" s="23" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Y15" s="23" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Z15" s="23" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AA15" s="23">
         <v>-553</v>
@@ -7516,10 +7516,10 @@
         <v>54</v>
       </c>
       <c r="AD15" s="23" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AE15" s="23" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AF15" s="23">
         <v>-315</v>
@@ -7531,13 +7531,13 @@
         <v>482</v>
       </c>
       <c r="AI15" s="23" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AJ15" s="23" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AK15" s="23" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AL15" s="23">
         <v>460</v>
@@ -7555,16 +7555,16 @@
         <v>150</v>
       </c>
       <c r="AQ15" s="24" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AR15" s="23" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="AS15" s="23" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="AT15" s="23" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="AU15" s="23">
         <v>817</v>
@@ -7573,37 +7573,37 @@
         <v>-920</v>
       </c>
       <c r="AW15" s="23" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="AX15" s="23">
         <v>419</v>
       </c>
       <c r="AY15" s="23" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="AZ15" s="23" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="BA15" s="23">
         <v>-699</v>
       </c>
       <c r="BB15" s="23" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="BC15" s="23">
         <v>902</v>
       </c>
       <c r="BD15" s="23" t="s">
+        <v>768</v>
+      </c>
+      <c r="BE15" s="23" t="s">
+        <v>769</v>
+      </c>
+      <c r="BF15" s="23" t="s">
+        <v>770</v>
+      </c>
+      <c r="BG15" s="23" t="s">
         <v>771</v>
-      </c>
-      <c r="BE15" s="23" t="s">
-        <v>772</v>
-      </c>
-      <c r="BF15" s="23" t="s">
-        <v>773</v>
-      </c>
-      <c r="BG15" s="23" t="s">
-        <v>774</v>
       </c>
       <c r="BH15" s="23">
         <v>897</v>
@@ -7615,12 +7615,12 @@
         <v>892</v>
       </c>
       <c r="BK15" s="24" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="17" spans="1:65" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B17" s="18">
         <v>57.3</v>
@@ -7878,198 +7878,198 @@
     </row>
     <row r="18" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="23">
         <v>306</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G18" s="23">
         <v>605</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N18" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T18" s="23">
         <v>766</v>
       </c>
       <c r="U18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V18" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="W18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X18" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y18" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA18" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB18" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="Y18" s="23" t="s">
+      <c r="AC18" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="Z18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA18" s="23" t="s">
+      <c r="AD18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE18" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="AB18" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="AC18" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="AD18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE18" s="23" t="s">
-        <v>410</v>
-      </c>
       <c r="AF18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH18" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="AI18" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="AJ18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM18" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO18" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="AI18" s="23" t="s">
+      <c r="AP18" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ18" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="AJ18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM18" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="AN18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO18" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="AP18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ18" s="24" t="s">
-        <v>450</v>
-      </c>
       <c r="AR18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS18" s="23">
         <v>291</v>
       </c>
       <c r="AT18" s="23" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="AU18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV18" s="23" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="AW18" s="23">
         <v>536</v>
       </c>
       <c r="AX18" s="23" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="AY18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ18" s="23" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="BA18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC18" s="23" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="BD18" s="23" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="BE18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BF18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BG18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BH18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BI18" s="23">
         <v>702</v>
       </c>
       <c r="BJ18" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BK18" s="24" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B19" s="23">
         <v>1176</v>
@@ -8138,28 +8138,28 @@
         <v>11160</v>
       </c>
       <c r="X19" s="23" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Y19" s="23" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Z19" s="23">
         <v>2367</v>
       </c>
       <c r="AA19" s="23" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AB19" s="23" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AC19" s="23" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AD19" s="23">
         <v>4584</v>
       </c>
       <c r="AE19" s="23" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AF19" s="23">
         <v>2268</v>
@@ -8168,10 +8168,10 @@
         <v>2990</v>
       </c>
       <c r="AH19" s="23" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AI19" s="23" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AJ19" s="23">
         <v>2391</v>
@@ -8183,19 +8183,19 @@
         <v>2376</v>
       </c>
       <c r="AM19" s="23" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AN19" s="23">
         <v>2761</v>
       </c>
       <c r="AO19" s="23" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AP19" s="23">
         <v>2800</v>
       </c>
       <c r="AQ19" s="24" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AR19" s="23">
         <v>1814</v>
@@ -8261,7 +8261,7 @@
     </row>
     <row r="20" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8274,7 +8274,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -8297,7 +8297,7 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AH20" s="12"/>
       <c r="AI20" s="12"/>
@@ -8320,7 +8320,7 @@
       <c r="AZ20" s="5"/>
       <c r="BA20" s="5"/>
       <c r="BB20" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BC20" s="12"/>
       <c r="BD20" s="12"/>
@@ -8334,401 +8334,401 @@
     </row>
     <row r="21" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="G21" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="H21" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="I21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="J21" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="K21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>64</v>
-      </c>
       <c r="L21" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="P21" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="Q21" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="R21" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="P21" s="18" t="s">
+      <c r="S21" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="Q21" s="18" t="s">
+      <c r="T21" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="R21" s="18" t="s">
+      <c r="U21" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="S21" s="18" t="s">
+      <c r="V21" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="T21" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="U21" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="V21" s="19" t="s">
-        <v>113</v>
-      </c>
       <c r="W21" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="X21" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y21" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z21" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="X21" s="18" t="s">
+      <c r="AA21" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="Y21" s="18" t="s">
+      <c r="AB21" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="Z21" s="18" t="s">
+      <c r="AC21" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="AA21" s="18" t="s">
+      <c r="AD21" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="AB21" s="18" t="s">
+      <c r="AE21" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="AC21" s="18" t="s">
+      <c r="AF21" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="AD21" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE21" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="AF21" s="18" t="s">
-        <v>426</v>
-      </c>
       <c r="AG21" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="AH21" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="AI21" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="AJ21" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="AH21" s="18" t="s">
+      <c r="AK21" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="AI21" s="18" t="s">
+      <c r="AL21" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="AJ21" s="18" t="s">
+      <c r="AM21" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="AK21" s="18" t="s">
+      <c r="AN21" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="AL21" s="18" t="s">
+      <c r="AO21" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="AM21" s="18" t="s">
+      <c r="AP21" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="AN21" s="18" t="s">
+      <c r="AQ21" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="AO21" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="AP21" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="AQ21" s="19" t="s">
-        <v>466</v>
-      </c>
       <c r="AR21" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="AS21" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="AT21" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="AU21" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="AS21" s="18" t="s">
+      <c r="AV21" s="18" t="s">
         <v>739</v>
       </c>
-      <c r="AT21" s="18" t="s">
+      <c r="AW21" s="18" t="s">
         <v>740</v>
       </c>
-      <c r="AU21" s="18" t="s">
+      <c r="AX21" s="18" t="s">
         <v>741</v>
       </c>
-      <c r="AV21" s="18" t="s">
+      <c r="AY21" s="18" t="s">
         <v>742</v>
       </c>
-      <c r="AW21" s="18" t="s">
+      <c r="AZ21" s="18" t="s">
         <v>743</v>
       </c>
-      <c r="AX21" s="18" t="s">
+      <c r="BA21" s="18" t="s">
         <v>744</v>
       </c>
-      <c r="AY21" s="18" t="s">
-        <v>745</v>
-      </c>
-      <c r="AZ21" s="18" t="s">
-        <v>746</v>
-      </c>
-      <c r="BA21" s="18" t="s">
-        <v>747</v>
-      </c>
       <c r="BB21" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="BC21" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="BD21" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="BE21" s="18" t="s">
         <v>779</v>
       </c>
-      <c r="BC21" s="18" t="s">
+      <c r="BF21" s="18" t="s">
         <v>780</v>
       </c>
-      <c r="BD21" s="18" t="s">
+      <c r="BG21" s="18" t="s">
         <v>781</v>
       </c>
-      <c r="BE21" s="18" t="s">
+      <c r="BH21" s="18" t="s">
         <v>782</v>
       </c>
-      <c r="BF21" s="18" t="s">
+      <c r="BI21" s="18" t="s">
         <v>783</v>
       </c>
-      <c r="BG21" s="18" t="s">
+      <c r="BJ21" s="18" t="s">
         <v>784</v>
       </c>
-      <c r="BH21" s="18" t="s">
+      <c r="BK21" s="19" t="s">
         <v>785</v>
-      </c>
-      <c r="BI21" s="18" t="s">
-        <v>786</v>
-      </c>
-      <c r="BJ21" s="18" t="s">
-        <v>787</v>
-      </c>
-      <c r="BK21" s="19" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="22" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="18" t="s">
+      <c r="I22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>69</v>
-      </c>
       <c r="K22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V22" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="W22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA22" s="18" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AB22" s="18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AC22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH22" s="18" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AI22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP22" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ22" s="19" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AR22" s="18" t="s">
+        <v>745</v>
+      </c>
+      <c r="AS22" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="AT22" s="18" t="s">
+        <v>747</v>
+      </c>
+      <c r="AU22" s="18" t="s">
         <v>748</v>
       </c>
-      <c r="AS22" s="18" t="s">
+      <c r="AV22" s="18" t="s">
         <v>749</v>
       </c>
-      <c r="AT22" s="18" t="s">
+      <c r="AW22" s="18" t="s">
         <v>750</v>
       </c>
-      <c r="AU22" s="18" t="s">
+      <c r="AX22" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="AV22" s="18" t="s">
+      <c r="AY22" s="18" t="s">
         <v>752</v>
       </c>
-      <c r="AW22" s="18" t="s">
+      <c r="AZ22" s="18" t="s">
         <v>753</v>
       </c>
-      <c r="AX22" s="18" t="s">
+      <c r="BA22" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="AY22" s="18" t="s">
-        <v>755</v>
-      </c>
-      <c r="AZ22" s="18" t="s">
-        <v>756</v>
-      </c>
-      <c r="BA22" s="18" t="s">
-        <v>757</v>
-      </c>
       <c r="BB22" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="BC22" s="18" t="s">
+        <v>787</v>
+      </c>
+      <c r="BD22" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="BE22" s="18" t="s">
         <v>789</v>
       </c>
-      <c r="BC22" s="18" t="s">
+      <c r="BF22" s="18" t="s">
         <v>790</v>
       </c>
-      <c r="BD22" s="18" t="s">
+      <c r="BG22" s="18" t="s">
         <v>791</v>
       </c>
-      <c r="BE22" s="18" t="s">
+      <c r="BH22" s="18" t="s">
         <v>792</v>
       </c>
-      <c r="BF22" s="18" t="s">
+      <c r="BI22" s="18" t="s">
         <v>793</v>
       </c>
-      <c r="BG22" s="18" t="s">
+      <c r="BJ22" s="18" t="s">
         <v>794</v>
       </c>
-      <c r="BH22" s="18" t="s">
+      <c r="BK22" s="19" t="s">
         <v>795</v>
-      </c>
-      <c r="BI22" s="18" t="s">
-        <v>796</v>
-      </c>
-      <c r="BJ22" s="18" t="s">
-        <v>797</v>
-      </c>
-      <c r="BK22" s="19" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="23" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F23" s="18">
         <v>60.2</v>
@@ -8740,58 +8740,58 @@
         <v>83.9</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J23" s="18">
         <v>61</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M23" s="18">
         <v>73.599999999999994</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R23" s="18">
         <v>75.2</v>
       </c>
       <c r="S23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V23" s="19">
         <v>48.6</v>
       </c>
       <c r="W23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Y23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA23" s="18">
         <v>59.3</v>
@@ -8800,46 +8800,46 @@
         <v>63.4</v>
       </c>
       <c r="AC23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AD23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AE23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AF23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AG23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AH23" s="18">
         <v>72.400000000000006</v>
       </c>
       <c r="AI23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AJ23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AK23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AL23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AM23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AN23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AO23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AP23" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AQ23" s="19">
         <v>47.8</v>
@@ -8907,7 +8907,7 @@
     </row>
     <row r="24" spans="1:65" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B24" s="18">
         <v>29.4</v>
@@ -8916,61 +8916,61 @@
         <v>30.7</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E24" s="18">
         <v>23.2</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G24" s="18">
         <v>26.8</v>
       </c>
       <c r="H24" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>77</v>
-      </c>
       <c r="L24" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="O24" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="P24" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="N24" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="O24" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="P24" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="Q24" s="18">
         <v>31.3</v>
       </c>
       <c r="R24" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="S24" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="T24" s="18">
         <v>36.799999999999997</v>
       </c>
       <c r="U24" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="V24" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="W24" s="18">
         <v>30.4</v>
@@ -8979,61 +8979,61 @@
         <v>30.5</v>
       </c>
       <c r="Y24" s="18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Z24" s="18">
         <v>23.2</v>
       </c>
       <c r="AA24" s="18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AB24" s="18">
         <v>30.1</v>
       </c>
       <c r="AC24" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD24" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE24" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF24" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="AD24" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="AE24" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="AF24" s="18" t="s">
-        <v>434</v>
-      </c>
       <c r="AG24" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="AH24" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI24" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ24" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="AK24" s="18" t="s">
         <v>469</v>
-      </c>
-      <c r="AH24" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="AI24" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ24" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="AK24" s="18" t="s">
-        <v>472</v>
       </c>
       <c r="AL24" s="18">
         <v>32</v>
       </c>
       <c r="AM24" s="18" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AN24" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AO24" s="18">
         <v>37.4</v>
       </c>
       <c r="AP24" s="18" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AQ24" s="19" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AR24" s="18">
         <v>30.8</v>
@@ -9042,63 +9042,63 @@
         <v>30.7</v>
       </c>
       <c r="AT24" s="18" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="AU24" s="18">
         <v>23.4</v>
       </c>
       <c r="AV24" s="18" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="AW24" s="18">
         <v>38.4</v>
       </c>
       <c r="AX24" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="AY24" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="AZ24" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="BA24" s="18" t="s">
         <v>760</v>
       </c>
-      <c r="AY24" s="18" t="s">
-        <v>761</v>
-      </c>
-      <c r="AZ24" s="18" t="s">
-        <v>762</v>
-      </c>
-      <c r="BA24" s="18" t="s">
-        <v>763</v>
-      </c>
       <c r="BB24" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="BC24" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="BD24" s="18" t="s">
+        <v>797</v>
+      </c>
+      <c r="BE24" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="BF24" s="18" t="s">
         <v>799</v>
-      </c>
-      <c r="BC24" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="BD24" s="18" t="s">
-        <v>800</v>
-      </c>
-      <c r="BE24" s="18" t="s">
-        <v>801</v>
-      </c>
-      <c r="BF24" s="18" t="s">
-        <v>802</v>
       </c>
       <c r="BG24" s="18">
         <v>32.200000000000003</v>
       </c>
       <c r="BH24" s="18" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="BI24" s="18">
         <v>38.6</v>
       </c>
       <c r="BJ24" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BK24" s="19" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="25" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B25" s="18">
         <v>20.7</v>
@@ -9289,7 +9289,7 @@
     </row>
     <row r="26" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B26" s="18">
         <v>28.1</v>
@@ -9480,7 +9480,7 @@
     </row>
     <row r="27" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -9547,7 +9547,7 @@
     </row>
     <row r="28" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B28" s="23">
         <v>956</v>
@@ -9625,7 +9625,7 @@
         <v>373</v>
       </c>
       <c r="AA28" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB28" s="23">
         <v>625</v>
@@ -9649,10 +9649,10 @@
         <v>637</v>
       </c>
       <c r="AI28" s="23" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AJ28" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK28" s="23">
         <v>788</v>
@@ -9670,13 +9670,13 @@
         <v>701</v>
       </c>
       <c r="AP28" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ28" s="24">
         <v>294</v>
       </c>
       <c r="AR28" s="18" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="AS28" s="18">
         <v>346</v>
@@ -9688,7 +9688,7 @@
         <v>386</v>
       </c>
       <c r="AV28" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW28" s="18">
         <v>624</v>
@@ -9706,16 +9706,16 @@
         <v>541</v>
       </c>
       <c r="BB28" s="18" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="BC28" s="18">
         <v>634</v>
       </c>
       <c r="BD28" s="18" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="BE28" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BF28" s="18">
         <v>725</v>
@@ -9730,7 +9730,7 @@
         <v>718</v>
       </c>
       <c r="BJ28" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BK28" s="19">
         <v>308</v>
@@ -9738,7 +9738,7 @@
     </row>
     <row r="29" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29" s="18">
         <v>18.399999999999999</v>
@@ -9816,7 +9816,7 @@
         <v>34.700000000000003</v>
       </c>
       <c r="AA29" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AB29" s="18">
         <v>27.7</v>
@@ -9843,7 +9843,7 @@
         <v>36.9</v>
       </c>
       <c r="AJ29" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AK29" s="18">
         <v>25</v>
@@ -9861,7 +9861,7 @@
         <v>27.2</v>
       </c>
       <c r="AP29" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AQ29" s="19">
         <v>18.3</v>
@@ -9879,7 +9879,7 @@
         <v>36.1</v>
       </c>
       <c r="AV29" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AW29" s="18">
         <v>27.7</v>
@@ -9906,7 +9906,7 @@
         <v>34.6</v>
       </c>
       <c r="BE29" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BF29" s="18">
         <v>22.7</v>
@@ -9921,7 +9921,7 @@
         <v>28</v>
       </c>
       <c r="BJ29" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BK29" s="19">
         <v>19.7</v>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="30" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="31" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B31" s="14">
         <v>1543</v>
@@ -10011,22 +10011,22 @@
         <v>597</v>
       </c>
       <c r="F31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="J31" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="K31" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="L31" s="14">
         <v>1338</v>
@@ -10062,7 +10062,7 @@
         <v>708</v>
       </c>
       <c r="W31" s="23" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="X31" s="23">
         <v>391</v>
@@ -10074,43 +10074,43 @@
         <v>611</v>
       </c>
       <c r="AA31" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB31" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC31" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD31" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE31" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="AC31" s="23" t="s">
+      <c r="AF31" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="AD31" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="AE31" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="AF31" s="23" t="s">
-        <v>440</v>
-      </c>
       <c r="AG31" s="23" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AH31" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AI31" s="23" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AJ31" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK31" s="23" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AL31" s="23">
         <v>376</v>
       </c>
       <c r="AM31" s="23" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AN31" s="23">
         <v>820</v>
@@ -10119,13 +10119,13 @@
         <v>773</v>
       </c>
       <c r="AP31" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ31" s="24">
         <v>662</v>
       </c>
       <c r="AR31" s="23" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="AS31" s="23">
         <v>368</v>
@@ -10137,34 +10137,34 @@
         <v>619</v>
       </c>
       <c r="AV31" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW31" s="23">
         <v>973</v>
       </c>
       <c r="AX31" s="23" t="s">
+        <v>763</v>
+      </c>
+      <c r="AY31" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="AZ31" s="23" t="s">
+        <v>765</v>
+      </c>
+      <c r="BA31" s="23" t="s">
         <v>766</v>
       </c>
-      <c r="AY31" s="23" t="s">
-        <v>767</v>
-      </c>
-      <c r="AZ31" s="23" t="s">
-        <v>768</v>
-      </c>
-      <c r="BA31" s="23" t="s">
-        <v>769</v>
-      </c>
       <c r="BB31" s="23" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="BC31" s="23" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="BD31" s="23" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="BE31" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BF31" s="23">
         <v>1431</v>
@@ -10179,7 +10179,7 @@
         <v>740</v>
       </c>
       <c r="BJ31" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BK31" s="24">
         <v>654</v>
@@ -10187,7 +10187,7 @@
     </row>
     <row r="32" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B32" s="18">
         <v>29.7</v>
@@ -10265,7 +10265,7 @@
         <v>56.8</v>
       </c>
       <c r="AA32" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AB32" s="18">
         <v>44.4</v>
@@ -10292,7 +10292,7 @@
         <v>63.5</v>
       </c>
       <c r="AJ32" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AK32" s="18">
         <v>45.6</v>
@@ -10310,7 +10310,7 @@
         <v>30</v>
       </c>
       <c r="AP32" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AQ32" s="19">
         <v>41.3</v>
@@ -10328,7 +10328,7 @@
         <v>57.8</v>
       </c>
       <c r="AV32" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AW32" s="18">
         <v>43.2</v>
@@ -10355,7 +10355,7 @@
         <v>59.9</v>
       </c>
       <c r="BE32" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BF32" s="18">
         <v>44.8</v>
@@ -10370,7 +10370,7 @@
         <v>28.9</v>
       </c>
       <c r="BJ32" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BK32" s="19">
         <v>41.7</v>
@@ -10378,198 +10378,198 @@
     </row>
     <row r="33" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V33" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="W33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Y33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AB33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AC33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AD33" s="18" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AE33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AF33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AG33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AH33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AI33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AJ33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AK33" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AL33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AM33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AN33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AO33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AP33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AQ33" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AR33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AS33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AT33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AU33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AV33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AW33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AX33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AY33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AZ33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BA33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BB33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BC33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BD33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BE33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BF33" s="18" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="BG33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BH33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BI33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BJ33" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BK33" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -10636,7 +10636,7 @@
     </row>
     <row r="35" spans="1:63" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B35" s="18">
         <v>1.6</v>
@@ -10714,7 +10714,7 @@
         <v>0.6</v>
       </c>
       <c r="AA35" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB35" s="18">
         <v>1.1000000000000001</v>
@@ -10741,7 +10741,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AJ35" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK35" s="18">
         <v>1.2</v>
@@ -10759,7 +10759,7 @@
         <v>0.9</v>
       </c>
       <c r="AP35" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ35" s="19">
         <v>0.7</v>
@@ -10777,7 +10777,7 @@
         <v>0.6</v>
       </c>
       <c r="AV35" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW35" s="18">
         <v>1</v>
@@ -10804,7 +10804,7 @@
         <v>1.9</v>
       </c>
       <c r="BE35" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BF35" s="18">
         <v>1.3</v>
@@ -10819,7 +10819,7 @@
         <v>0.8</v>
       </c>
       <c r="BJ35" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BK35" s="19">
         <v>0.7</v>
@@ -10827,7 +10827,7 @@
     </row>
     <row r="36" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B36" s="18">
         <v>30.5</v>
@@ -10905,7 +10905,7 @@
         <v>54.8</v>
       </c>
       <c r="AA36" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AB36" s="18">
         <v>46.6</v>
@@ -10932,7 +10932,7 @@
         <v>69.3</v>
       </c>
       <c r="AJ36" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AK36" s="18">
         <v>38.700000000000003</v>
@@ -10950,7 +10950,7 @@
         <v>34.799999999999997</v>
       </c>
       <c r="AP36" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AQ36" s="19">
         <v>42.1</v>
@@ -10968,7 +10968,7 @@
         <v>56.3</v>
       </c>
       <c r="AV36" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AW36" s="18">
         <v>47.9</v>
@@ -10995,7 +10995,7 @@
         <v>58.2</v>
       </c>
       <c r="BE36" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BF36" s="18">
         <v>41</v>
@@ -11010,7 +11010,7 @@
         <v>32.5</v>
       </c>
       <c r="BJ36" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BK36" s="19">
         <v>43.7</v>
@@ -11018,198 +11018,198 @@
     </row>
     <row r="37" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V37" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="W37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Y37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AA37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AB37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AC37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AD37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AE37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AF37" s="18" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AG37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AH37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AI37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AJ37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AK37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AL37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AM37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AN37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AO37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AP37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AQ37" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AR37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AS37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AT37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AU37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AV37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AW37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AX37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AY37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AZ37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BA37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BB37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BC37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BD37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BE37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BF37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BG37" s="18" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="BH37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BI37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BJ37" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BK37" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:63" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -11276,7 +11276,7 @@
     </row>
     <row r="39" spans="1:63" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B39" s="18">
         <v>7.6</v>
@@ -11354,7 +11354,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AA39" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB39" s="18">
         <v>3.3</v>
@@ -11381,7 +11381,7 @@
         <v>6.2</v>
       </c>
       <c r="AJ39" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK39" s="18">
         <v>4</v>
@@ -11399,7 +11399,7 @@
         <v>4</v>
       </c>
       <c r="AP39" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ39" s="19">
         <v>2.2999999999999998</v>
@@ -11417,7 +11417,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AV39" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW39" s="18">
         <v>3.3</v>
@@ -11444,7 +11444,7 @@
         <v>6.8</v>
       </c>
       <c r="BE39" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BF39" s="18">
         <v>3.8</v>
@@ -11459,7 +11459,7 @@
         <v>4.2</v>
       </c>
       <c r="BJ39" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BK39" s="19">
         <v>2.2999999999999998</v>
@@ -11467,7 +11467,7 @@
     </row>
     <row r="40" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B40" s="18">
         <v>146.9</v>
@@ -11545,7 +11545,7 @@
         <v>105.9</v>
       </c>
       <c r="AA40" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AB40" s="18">
         <v>144.69999999999999</v>
@@ -11572,7 +11572,7 @@
         <v>187.7</v>
       </c>
       <c r="AJ40" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AK40" s="18">
         <v>126</v>
@@ -11590,7 +11590,7 @@
         <v>156.4</v>
       </c>
       <c r="AP40" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AQ40" s="19">
         <v>145.6</v>
@@ -11608,7 +11608,7 @@
         <v>106.4</v>
       </c>
       <c r="AV40" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AW40" s="18">
         <v>144.69999999999999</v>
@@ -11635,7 +11635,7 @@
         <v>205.8</v>
       </c>
       <c r="BE40" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BF40" s="18">
         <v>120</v>
@@ -11650,7 +11650,7 @@
         <v>165.1</v>
       </c>
       <c r="BJ40" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BK40" s="19">
         <v>148.9</v>
@@ -11658,198 +11658,198 @@
     </row>
     <row r="41" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="E41" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="F41" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="G41" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="H41" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="I41" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="J41" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="K41" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="I41" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="J41" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="K41" s="23" t="s">
-        <v>141</v>
-      </c>
       <c r="L41" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="N41" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="O41" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="M41" s="23" t="s">
+      <c r="P41" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="N41" s="23" t="s">
+      <c r="Q41" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="R41" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="O41" s="23" t="s">
+      <c r="S41" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="P41" s="23" t="s">
+      <c r="T41" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="Q41" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="R41" s="23" t="s">
+      <c r="U41" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="S41" s="23" t="s">
+      <c r="V41" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="T41" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="U41" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="V41" s="24" t="s">
-        <v>231</v>
-      </c>
       <c r="W41" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="X41" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y41" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="Z41" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="AA41" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="X41" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y41" s="23" t="s">
+      <c r="AB41" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="Z41" s="23" t="s">
+      <c r="AC41" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="AA41" s="23" t="s">
+      <c r="AD41" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="AB41" s="23" t="s">
+      <c r="AE41" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="AC41" s="23" t="s">
+      <c r="AF41" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="AD41" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="AE41" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="AF41" s="23" t="s">
-        <v>491</v>
-      </c>
       <c r="AG41" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="AH41" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="AI41" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="AJ41" s="23" t="s">
         <v>553</v>
       </c>
-      <c r="AH41" s="23" t="s">
+      <c r="AK41" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="AI41" s="23" t="s">
+      <c r="AL41" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="AJ41" s="23" t="s">
+      <c r="AM41" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="AK41" s="23" t="s">
+      <c r="AN41" s="23" t="s">
         <v>557</v>
       </c>
-      <c r="AL41" s="23" t="s">
+      <c r="AO41" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="AM41" s="23" t="s">
+      <c r="AP41" s="23" t="s">
         <v>559</v>
       </c>
-      <c r="AN41" s="23" t="s">
+      <c r="AQ41" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="AO41" s="23" t="s">
-        <v>561</v>
-      </c>
-      <c r="AP41" s="23" t="s">
-        <v>562</v>
-      </c>
-      <c r="AQ41" s="24" t="s">
-        <v>563</v>
-      </c>
       <c r="AR41" s="23" t="s">
+        <v>808</v>
+      </c>
+      <c r="AS41" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="AT41" s="23" t="s">
+        <v>810</v>
+      </c>
+      <c r="AU41" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="AS41" s="23" t="s">
+      <c r="AV41" s="23" t="s">
         <v>812</v>
       </c>
-      <c r="AT41" s="23" t="s">
+      <c r="AW41" s="23" t="s">
         <v>813</v>
       </c>
-      <c r="AU41" s="23" t="s">
+      <c r="AX41" s="23" t="s">
         <v>814</v>
       </c>
-      <c r="AV41" s="23" t="s">
+      <c r="AY41" s="23" t="s">
         <v>815</v>
       </c>
-      <c r="AW41" s="23" t="s">
+      <c r="AZ41" s="23" t="s">
         <v>816</v>
       </c>
-      <c r="AX41" s="23" t="s">
+      <c r="BA41" s="23" t="s">
         <v>817</v>
-      </c>
-      <c r="AY41" s="23" t="s">
-        <v>818</v>
-      </c>
-      <c r="AZ41" s="23" t="s">
-        <v>819</v>
-      </c>
-      <c r="BA41" s="23" t="s">
-        <v>820</v>
       </c>
       <c r="BB41" s="23">
         <v>137582</v>
       </c>
       <c r="BC41" s="23" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="BD41" s="23" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="BE41" s="23">
         <v>34481</v>
       </c>
       <c r="BF41" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="BG41" s="23" t="s">
+        <v>885</v>
+      </c>
+      <c r="BH41" s="23" t="s">
+        <v>886</v>
+      </c>
+      <c r="BI41" s="23" t="s">
+        <v>887</v>
+      </c>
+      <c r="BJ41" s="23" t="s">
         <v>888</v>
       </c>
-      <c r="BH41" s="23" t="s">
+      <c r="BK41" s="24" t="s">
         <v>889</v>
-      </c>
-      <c r="BI41" s="23" t="s">
-        <v>890</v>
-      </c>
-      <c r="BJ41" s="23" t="s">
-        <v>891</v>
-      </c>
-      <c r="BK41" s="24" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="42" spans="1:63" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -11916,228 +11916,228 @@
     </row>
     <row r="43" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="F43" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="23" t="s">
+      <c r="G43" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="H43" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="I43" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="J43" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="H43" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I43" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="J43" s="23" t="s">
-        <v>151</v>
-      </c>
       <c r="K43" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L43" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="N43" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="O43" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="M43" s="23" t="s">
+      <c r="P43" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="N43" s="23" t="s">
+      <c r="Q43" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="R43" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="O43" s="23" t="s">
+      <c r="S43" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="P43" s="23" t="s">
+      <c r="T43" s="23" t="s">
         <v>236</v>
-      </c>
-      <c r="Q43" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="R43" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="S43" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="T43" s="23" t="s">
-        <v>239</v>
       </c>
       <c r="U43" s="23">
         <v>48787</v>
       </c>
       <c r="V43" s="24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="W43" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="X43" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y43" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z43" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA43" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="X43" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y43" s="23" t="s">
+      <c r="AB43" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="Z43" s="23" t="s">
+      <c r="AC43" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="AA43" s="23" t="s">
+      <c r="AD43" s="23" t="s">
         <v>495</v>
       </c>
-      <c r="AB43" s="23" t="s">
+      <c r="AE43" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="AC43" s="23" t="s">
+      <c r="AF43" s="23" t="s">
         <v>497</v>
       </c>
-      <c r="AD43" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="AE43" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="AF43" s="23" t="s">
-        <v>500</v>
-      </c>
       <c r="AG43" s="23" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AH43" s="23" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AI43" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="AJ43" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="AK43" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="AL43" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="AJ43" s="23" t="s">
+      <c r="AM43" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="AK43" s="23" t="s">
+      <c r="AN43" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="AL43" s="23" t="s">
+      <c r="AO43" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="AM43" s="23" t="s">
+      <c r="AP43" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="AN43" s="23" t="s">
+      <c r="AQ43" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="AO43" s="23" t="s">
-        <v>570</v>
-      </c>
-      <c r="AP43" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="AQ43" s="24" t="s">
-        <v>572</v>
-      </c>
       <c r="AR43" s="23" t="s">
+        <v>818</v>
+      </c>
+      <c r="AS43" s="23" t="s">
+        <v>819</v>
+      </c>
+      <c r="AT43" s="23" t="s">
+        <v>820</v>
+      </c>
+      <c r="AU43" s="23" t="s">
         <v>821</v>
       </c>
-      <c r="AS43" s="23" t="s">
+      <c r="AV43" s="23" t="s">
         <v>822</v>
       </c>
-      <c r="AT43" s="23" t="s">
+      <c r="AW43" s="23" t="s">
         <v>823</v>
       </c>
-      <c r="AU43" s="23" t="s">
+      <c r="AX43" s="23" t="s">
         <v>824</v>
       </c>
-      <c r="AV43" s="23" t="s">
+      <c r="AY43" s="23" t="s">
         <v>825</v>
       </c>
-      <c r="AW43" s="23" t="s">
+      <c r="AZ43" s="23" t="s">
         <v>826</v>
       </c>
-      <c r="AX43" s="23" t="s">
+      <c r="BA43" s="23" t="s">
         <v>827</v>
       </c>
-      <c r="AY43" s="23" t="s">
-        <v>828</v>
-      </c>
-      <c r="AZ43" s="23" t="s">
-        <v>829</v>
-      </c>
-      <c r="BA43" s="23" t="s">
-        <v>830</v>
-      </c>
       <c r="BB43" s="23" t="s">
+        <v>890</v>
+      </c>
+      <c r="BC43" s="23" t="s">
+        <v>883</v>
+      </c>
+      <c r="BD43" s="23" t="s">
+        <v>891</v>
+      </c>
+      <c r="BE43" s="23" t="s">
+        <v>892</v>
+      </c>
+      <c r="BF43" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG43" s="23" t="s">
         <v>893</v>
       </c>
-      <c r="BC43" s="23" t="s">
-        <v>886</v>
-      </c>
-      <c r="BD43" s="23" t="s">
+      <c r="BH43" s="23" t="s">
         <v>894</v>
       </c>
-      <c r="BE43" s="23" t="s">
+      <c r="BI43" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="BF43" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG43" s="23" t="s">
+      <c r="BJ43" s="23" t="s">
         <v>896</v>
       </c>
-      <c r="BH43" s="23" t="s">
+      <c r="BK43" s="24" t="s">
         <v>897</v>
-      </c>
-      <c r="BI43" s="23" t="s">
-        <v>898</v>
-      </c>
-      <c r="BJ43" s="23" t="s">
-        <v>899</v>
-      </c>
-      <c r="BK43" s="24" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="44" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E44" s="23">
         <v>693</v>
       </c>
       <c r="F44" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="J44" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="G44" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="I44" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="J44" s="23" t="s">
-        <v>158</v>
-      </c>
       <c r="K44" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L44" s="23">
         <v>629</v>
@@ -12146,40 +12146,40 @@
         <v>421</v>
       </c>
       <c r="N44" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="O44" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="P44" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q44" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="R44" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="S44" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="O44" s="23" t="s">
+      <c r="T44" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="P44" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q44" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="R44" s="23" t="s">
+      <c r="U44" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="V44" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="S44" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="T44" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="U44" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="V44" s="24" t="s">
-        <v>246</v>
-      </c>
       <c r="W44" s="23" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="X44" s="23" t="s">
         <v>0</v>
       </c>
       <c r="Y44" s="23" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Z44" s="23">
         <v>177</v>
@@ -12209,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="23" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AJ44" s="23">
         <v>883</v>
@@ -12221,13 +12221,13 @@
         <v>268</v>
       </c>
       <c r="AM44" s="23" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AN44" s="23">
         <v>355</v>
       </c>
       <c r="AO44" s="23" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AP44" s="23">
         <v>396</v>
@@ -12236,13 +12236,13 @@
         <v>475</v>
       </c>
       <c r="AR44" s="23" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="AS44" s="23">
         <v>264</v>
       </c>
       <c r="AT44" s="23" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="AU44" s="23">
         <v>441</v>
@@ -12254,31 +12254,31 @@
         <v>582</v>
       </c>
       <c r="AX44" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="AY44" s="23" t="s">
+        <v>831</v>
+      </c>
+      <c r="AZ44" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="BA44" s="23" t="s">
         <v>833</v>
       </c>
-      <c r="AY44" s="23" t="s">
-        <v>834</v>
-      </c>
-      <c r="AZ44" s="23" t="s">
-        <v>835</v>
-      </c>
-      <c r="BA44" s="23" t="s">
-        <v>836</v>
-      </c>
       <c r="BB44" s="23" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="BC44" s="23" t="s">
         <v>0</v>
       </c>
       <c r="BD44" s="23" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="BE44" s="23">
         <v>3306</v>
       </c>
       <c r="BF44" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BG44" s="23">
         <v>418</v>
@@ -12287,18 +12287,18 @@
         <v>481</v>
       </c>
       <c r="BI44" s="23" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="BJ44" s="23" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="BK44" s="24" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="45" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -12365,103 +12365,103 @@
     </row>
     <row r="46" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="E46" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="F46" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="G46" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="H46" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="I46" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="J46" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="K46" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="I46" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="J46" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="K46" s="18" t="s">
-        <v>170</v>
-      </c>
       <c r="L46" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="M46" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="N46" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="O46" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="M46" s="18" t="s">
+      <c r="P46" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="N46" s="18" t="s">
+      <c r="Q46" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="O46" s="18" t="s">
+      <c r="R46" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="P46" s="18" t="s">
+      <c r="S46" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="Q46" s="18" t="s">
+      <c r="T46" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="R46" s="18" t="s">
+      <c r="U46" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="S46" s="18" t="s">
+      <c r="V46" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="T46" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="U46" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="V46" s="19" t="s">
-        <v>257</v>
-      </c>
       <c r="W46" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="X46" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y46" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="Z46" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="X46" s="18" t="s">
+      <c r="AA46" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="Y46" s="18" t="s">
+      <c r="AB46" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="Z46" s="18" t="s">
+      <c r="AC46" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="AA46" s="18" t="s">
+      <c r="AD46" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="AB46" s="18" t="s">
+      <c r="AE46" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="AC46" s="18" t="s">
+      <c r="AF46" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="AD46" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="AE46" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="AF46" s="18" t="s">
-        <v>512</v>
-      </c>
       <c r="AG46" s="18" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AH46" s="18">
         <v>1471.8</v>
@@ -12494,69 +12494,69 @@
         <v>1748.2</v>
       </c>
       <c r="AR46" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="AS46" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="AT46" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="AU46" s="18" t="s">
         <v>837</v>
       </c>
-      <c r="AS46" s="18" t="s">
+      <c r="AV46" s="18" t="s">
         <v>838</v>
       </c>
-      <c r="AT46" s="18" t="s">
+      <c r="AW46" s="18" t="s">
         <v>839</v>
       </c>
-      <c r="AU46" s="18" t="s">
+      <c r="AX46" s="18" t="s">
         <v>840</v>
       </c>
-      <c r="AV46" s="18" t="s">
+      <c r="AY46" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="AW46" s="18" t="s">
+      <c r="AZ46" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="AX46" s="18" t="s">
+      <c r="BA46" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="AY46" s="18" t="s">
-        <v>844</v>
-      </c>
-      <c r="AZ46" s="18" t="s">
-        <v>845</v>
-      </c>
-      <c r="BA46" s="18" t="s">
-        <v>846</v>
-      </c>
       <c r="BB46" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="BC46" s="18" t="s">
+        <v>904</v>
+      </c>
+      <c r="BD46" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="BE46" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="BC46" s="18" t="s">
+      <c r="BF46" s="18" t="s">
         <v>907</v>
       </c>
-      <c r="BD46" s="18" t="s">
+      <c r="BG46" s="18" t="s">
         <v>908</v>
       </c>
-      <c r="BE46" s="18" t="s">
+      <c r="BH46" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="BF46" s="18" t="s">
+      <c r="BI46" s="18" t="s">
         <v>910</v>
       </c>
-      <c r="BG46" s="18" t="s">
+      <c r="BJ46" s="18" t="s">
         <v>911</v>
       </c>
-      <c r="BH46" s="18" t="s">
+      <c r="BK46" s="19" t="s">
         <v>912</v>
-      </c>
-      <c r="BI46" s="18" t="s">
-        <v>913</v>
-      </c>
-      <c r="BJ46" s="18" t="s">
-        <v>914</v>
-      </c>
-      <c r="BK46" s="19" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="47" spans="1:63" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B47" s="18">
         <v>15.9</v>
@@ -12747,7 +12747,7 @@
     </row>
     <row r="48" spans="1:63" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -12814,7 +12814,7 @@
     </row>
     <row r="49" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B49" s="18">
         <v>2.2000000000000002</v>
@@ -12862,7 +12862,7 @@
         <v>0.8</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="R49" s="18">
         <v>28</v>
@@ -13005,7 +13005,7 @@
     </row>
     <row r="50" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B50" s="18">
         <v>6.8</v>
@@ -13196,7 +13196,7 @@
     </row>
     <row r="51" spans="1:63" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -13209,7 +13209,7 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
@@ -13232,7 +13232,7 @@
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
       <c r="AG51" s="12" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AH51" s="12"/>
       <c r="AI51" s="12"/>
@@ -13255,7 +13255,7 @@
       <c r="AZ51" s="5"/>
       <c r="BA51" s="5"/>
       <c r="BB51" s="12" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="BC51" s="12"/>
       <c r="BD51" s="12"/>
@@ -13269,389 +13269,389 @@
     </row>
     <row r="52" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="E52" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="F52" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="G52" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="H52" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="I52" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="J52" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="K52" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="I52" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="J52" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="K52" s="18" t="s">
-        <v>186</v>
-      </c>
       <c r="L52" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="M52" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="N52" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="O52" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="M52" s="18" t="s">
+      <c r="P52" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="N52" s="18" t="s">
+      <c r="Q52" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="O52" s="18" t="s">
+      <c r="R52" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="P52" s="18" t="s">
+      <c r="S52" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="Q52" s="18" t="s">
+      <c r="T52" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="R52" s="18" t="s">
+      <c r="U52" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="S52" s="18" t="s">
+      <c r="V52" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="T52" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="U52" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="V52" s="19" t="s">
-        <v>269</v>
-      </c>
       <c r="W52" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="X52" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y52" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z52" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="X52" s="18" t="s">
+      <c r="AA52" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="Y52" s="18" t="s">
+      <c r="AB52" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="Z52" s="18" t="s">
+      <c r="AC52" s="18" t="s">
         <v>516</v>
       </c>
-      <c r="AA52" s="18" t="s">
+      <c r="AD52" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="AB52" s="18" t="s">
+      <c r="AE52" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="AC52" s="18" t="s">
+      <c r="AF52" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="AD52" s="18" t="s">
-        <v>520</v>
-      </c>
-      <c r="AE52" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="AF52" s="18" t="s">
-        <v>522</v>
-      </c>
       <c r="AG52" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="AH52" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="AI52" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="AJ52" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="AH52" s="18" t="s">
+      <c r="AK52" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="AI52" s="18" t="s">
+      <c r="AL52" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AJ52" s="18" t="s">
+      <c r="AM52" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="AK52" s="18" t="s">
+      <c r="AN52" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="AL52" s="18" t="s">
+      <c r="AO52" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AM52" s="18" t="s">
+      <c r="AP52" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="AN52" s="18" t="s">
+      <c r="AQ52" s="19" t="s">
         <v>585</v>
       </c>
-      <c r="AO52" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="AP52" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="AQ52" s="19" t="s">
-        <v>588</v>
-      </c>
       <c r="AR52" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="AS52" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="AT52" s="18" t="s">
+        <v>846</v>
+      </c>
+      <c r="AU52" s="18" t="s">
         <v>847</v>
       </c>
-      <c r="AS52" s="18" t="s">
+      <c r="AV52" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="AT52" s="18" t="s">
+      <c r="AW52" s="18" t="s">
         <v>849</v>
       </c>
-      <c r="AU52" s="18" t="s">
+      <c r="AX52" s="18" t="s">
         <v>850</v>
       </c>
-      <c r="AV52" s="18" t="s">
+      <c r="AY52" s="18" t="s">
         <v>851</v>
       </c>
-      <c r="AW52" s="18" t="s">
+      <c r="AZ52" s="18" t="s">
         <v>852</v>
       </c>
-      <c r="AX52" s="18" t="s">
+      <c r="BA52" s="18" t="s">
         <v>853</v>
       </c>
-      <c r="AY52" s="18" t="s">
-        <v>854</v>
-      </c>
-      <c r="AZ52" s="18" t="s">
-        <v>855</v>
-      </c>
-      <c r="BA52" s="18" t="s">
-        <v>856</v>
-      </c>
       <c r="BB52" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="BC52" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="BD52" s="18" t="s">
+        <v>915</v>
+      </c>
+      <c r="BE52" s="18" t="s">
         <v>916</v>
       </c>
-      <c r="BC52" s="18" t="s">
+      <c r="BF52" s="18" t="s">
         <v>917</v>
       </c>
-      <c r="BD52" s="18" t="s">
+      <c r="BG52" s="18" t="s">
         <v>918</v>
       </c>
-      <c r="BE52" s="18" t="s">
+      <c r="BH52" s="18" t="s">
         <v>919</v>
       </c>
-      <c r="BF52" s="18" t="s">
+      <c r="BI52" s="18" t="s">
         <v>920</v>
       </c>
-      <c r="BG52" s="18" t="s">
+      <c r="BJ52" s="18" t="s">
         <v>921</v>
       </c>
-      <c r="BH52" s="18" t="s">
+      <c r="BK52" s="19" t="s">
         <v>922</v>
-      </c>
-      <c r="BI52" s="18" t="s">
-        <v>923</v>
-      </c>
-      <c r="BJ52" s="18" t="s">
-        <v>924</v>
-      </c>
-      <c r="BK52" s="19" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="53" spans="1:63" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="E53" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="F53" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="G53" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="H53" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="I53" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="J53" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="K53" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="I53" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>197</v>
-      </c>
       <c r="L53" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="N53" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="O53" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="M53" s="18" t="s">
+      <c r="P53" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="N53" s="18" t="s">
+      <c r="Q53" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="O53" s="18" t="s">
+      <c r="R53" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="P53" s="18" t="s">
+      <c r="S53" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="Q53" s="18" t="s">
+      <c r="T53" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="R53" s="18" t="s">
+      <c r="U53" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="S53" s="18" t="s">
+      <c r="V53" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="T53" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="U53" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="V53" s="19" t="s">
-        <v>280</v>
-      </c>
       <c r="W53" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="X53" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y53" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="Z53" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="X53" s="18" t="s">
+      <c r="AA53" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="Y53" s="18" t="s">
+      <c r="AB53" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="Z53" s="18" t="s">
+      <c r="AC53" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="AA53" s="18" t="s">
+      <c r="AD53" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="AB53" s="18" t="s">
+      <c r="AE53" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="AC53" s="18" t="s">
+      <c r="AF53" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="AD53" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="AE53" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="AF53" s="18" t="s">
-        <v>532</v>
-      </c>
       <c r="AG53" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="AH53" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="AI53" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="AJ53" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="AH53" s="18" t="s">
+      <c r="AK53" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="AI53" s="18" t="s">
+      <c r="AL53" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="AJ53" s="18" t="s">
+      <c r="AM53" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="AK53" s="18" t="s">
+      <c r="AN53" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="AL53" s="18" t="s">
+      <c r="AO53" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="AM53" s="18" t="s">
+      <c r="AP53" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="AN53" s="18" t="s">
+      <c r="AQ53" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="AO53" s="18" t="s">
-        <v>597</v>
-      </c>
-      <c r="AP53" s="18" t="s">
-        <v>598</v>
-      </c>
-      <c r="AQ53" s="19" t="s">
-        <v>599</v>
-      </c>
       <c r="AR53" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="AS53" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="AT53" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="AU53" s="18" t="s">
         <v>857</v>
       </c>
-      <c r="AS53" s="18" t="s">
+      <c r="AV53" s="18" t="s">
         <v>858</v>
       </c>
-      <c r="AT53" s="18" t="s">
+      <c r="AW53" s="18" t="s">
         <v>859</v>
       </c>
-      <c r="AU53" s="18" t="s">
+      <c r="AX53" s="18" t="s">
         <v>860</v>
       </c>
-      <c r="AV53" s="18" t="s">
+      <c r="AY53" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="AW53" s="18" t="s">
+      <c r="AZ53" s="18" t="s">
         <v>862</v>
       </c>
-      <c r="AX53" s="18" t="s">
+      <c r="BA53" s="18" t="s">
         <v>863</v>
       </c>
-      <c r="AY53" s="18" t="s">
-        <v>864</v>
-      </c>
-      <c r="AZ53" s="18" t="s">
-        <v>865</v>
-      </c>
-      <c r="BA53" s="18" t="s">
-        <v>866</v>
-      </c>
       <c r="BB53" s="18" t="s">
+        <v>923</v>
+      </c>
+      <c r="BC53" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="BD53" s="18" t="s">
+        <v>925</v>
+      </c>
+      <c r="BE53" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="BC53" s="18" t="s">
+      <c r="BF53" s="18" t="s">
         <v>927</v>
       </c>
-      <c r="BD53" s="18" t="s">
+      <c r="BG53" s="18" t="s">
         <v>928</v>
       </c>
-      <c r="BE53" s="18" t="s">
+      <c r="BH53" s="18" t="s">
         <v>929</v>
       </c>
-      <c r="BF53" s="18" t="s">
+      <c r="BI53" s="18" t="s">
         <v>930</v>
       </c>
-      <c r="BG53" s="18" t="s">
+      <c r="BJ53" s="18" t="s">
         <v>931</v>
       </c>
-      <c r="BH53" s="18" t="s">
+      <c r="BK53" s="19" t="s">
         <v>932</v>
-      </c>
-      <c r="BI53" s="18" t="s">
-        <v>933</v>
-      </c>
-      <c r="BJ53" s="18" t="s">
-        <v>934</v>
-      </c>
-      <c r="BK53" s="19" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="54" spans="1:63" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B54" s="18">
         <v>42.3</v>
@@ -13842,7 +13842,7 @@
     </row>
     <row r="55" spans="1:63" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B55" s="18">
         <v>7.4</v>
@@ -14033,7 +14033,7 @@
     </row>
     <row r="56" spans="1:63" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -14046,7 +14046,7 @@
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
@@ -14069,7 +14069,7 @@
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AH56" s="12"/>
       <c r="AI56" s="12"/>
@@ -14092,7 +14092,7 @@
       <c r="AZ56" s="5"/>
       <c r="BA56" s="5"/>
       <c r="BB56" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="BC56" s="12"/>
       <c r="BD56" s="12"/>
@@ -14106,198 +14106,198 @@
     </row>
     <row r="57" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D57" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="E57" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="F57" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="G57" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="H57" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="I57" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G57" s="23" t="s">
+      <c r="J57" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="K57" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="I57" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="J57" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="K57" s="23" t="s">
-        <v>211</v>
-      </c>
       <c r="L57" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="M57" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="N57" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="O57" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="M57" s="23" t="s">
+      <c r="P57" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="N57" s="23" t="s">
+      <c r="Q57" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="O57" s="23" t="s">
+      <c r="R57" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="P57" s="23" t="s">
+      <c r="S57" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="Q57" s="23" t="s">
+      <c r="T57" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="R57" s="23" t="s">
+      <c r="U57" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="S57" s="23" t="s">
+      <c r="V57" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="T57" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="U57" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="V57" s="24" t="s">
-        <v>292</v>
-      </c>
       <c r="W57" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="X57" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y57" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="Z57" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="X57" s="23" t="s">
+      <c r="AA57" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="Y57" s="23" t="s">
+      <c r="AB57" s="23" t="s">
         <v>535</v>
       </c>
-      <c r="Z57" s="23" t="s">
+      <c r="AC57" s="23" t="s">
         <v>536</v>
       </c>
-      <c r="AA57" s="23" t="s">
+      <c r="AD57" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="AB57" s="23" t="s">
+      <c r="AE57" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="AC57" s="23" t="s">
+      <c r="AF57" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="AD57" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="AE57" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="AF57" s="23" t="s">
-        <v>542</v>
-      </c>
       <c r="AG57" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="AH57" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="AI57" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="AJ57" s="23" t="s">
         <v>600</v>
       </c>
-      <c r="AH57" s="23" t="s">
+      <c r="AK57" s="23" t="s">
         <v>601</v>
       </c>
-      <c r="AI57" s="23" t="s">
+      <c r="AL57" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="AJ57" s="23" t="s">
+      <c r="AM57" s="23" t="s">
         <v>603</v>
       </c>
-      <c r="AK57" s="23" t="s">
+      <c r="AN57" s="23" t="s">
         <v>604</v>
       </c>
-      <c r="AL57" s="23" t="s">
+      <c r="AO57" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="AM57" s="23" t="s">
+      <c r="AP57" s="23" t="s">
         <v>606</v>
       </c>
-      <c r="AN57" s="23" t="s">
+      <c r="AQ57" s="24" t="s">
         <v>607</v>
       </c>
-      <c r="AO57" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="AP57" s="23" t="s">
-        <v>609</v>
-      </c>
-      <c r="AQ57" s="24" t="s">
-        <v>610</v>
-      </c>
       <c r="AR57" s="23" t="s">
+        <v>864</v>
+      </c>
+      <c r="AS57" s="23" t="s">
+        <v>865</v>
+      </c>
+      <c r="AT57" s="23" t="s">
+        <v>866</v>
+      </c>
+      <c r="AU57" s="23" t="s">
         <v>867</v>
       </c>
-      <c r="AS57" s="23" t="s">
+      <c r="AV57" s="23" t="s">
         <v>868</v>
       </c>
-      <c r="AT57" s="23" t="s">
+      <c r="AW57" s="23" t="s">
         <v>869</v>
-      </c>
-      <c r="AU57" s="23" t="s">
-        <v>870</v>
-      </c>
-      <c r="AV57" s="23" t="s">
-        <v>871</v>
-      </c>
-      <c r="AW57" s="23" t="s">
-        <v>872</v>
       </c>
       <c r="AX57" s="23">
         <v>6953</v>
       </c>
       <c r="AY57" s="23" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="AZ57" s="23" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="BA57" s="23" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="BB57" s="23" t="s">
+        <v>933</v>
+      </c>
+      <c r="BC57" s="23" t="s">
+        <v>934</v>
+      </c>
+      <c r="BD57" s="23" t="s">
+        <v>935</v>
+      </c>
+      <c r="BE57" s="23" t="s">
         <v>936</v>
       </c>
-      <c r="BC57" s="23" t="s">
+      <c r="BF57" s="23" t="s">
         <v>937</v>
       </c>
-      <c r="BD57" s="23" t="s">
+      <c r="BG57" s="23" t="s">
         <v>938</v>
       </c>
-      <c r="BE57" s="23" t="s">
+      <c r="BH57" s="23" t="s">
         <v>939</v>
       </c>
-      <c r="BF57" s="23" t="s">
+      <c r="BI57" s="23" t="s">
         <v>940</v>
       </c>
-      <c r="BG57" s="23" t="s">
+      <c r="BJ57" s="23" t="s">
         <v>941</v>
       </c>
-      <c r="BH57" s="23" t="s">
+      <c r="BK57" s="24" t="s">
         <v>942</v>
-      </c>
-      <c r="BI57" s="23" t="s">
-        <v>943</v>
-      </c>
-      <c r="BJ57" s="23" t="s">
-        <v>944</v>
-      </c>
-      <c r="BK57" s="24" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="58" spans="1:63" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -14310,7 +14310,7 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
@@ -14333,7 +14333,7 @@
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
       <c r="AG58" s="12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AH58" s="12"/>
       <c r="AI58" s="12"/>
@@ -14356,7 +14356,7 @@
       <c r="AZ58" s="5"/>
       <c r="BA58" s="5"/>
       <c r="BB58" s="12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="BC58" s="12"/>
       <c r="BD58" s="12"/>
@@ -14370,7 +14370,7 @@
     </row>
     <row r="59" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -14449,7 +14449,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F60" s="18" t="s">
         <v>0</v>
@@ -14491,13 +14491,13 @@
         <v>0</v>
       </c>
       <c r="S60" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="T60" s="18" t="s">
         <v>0</v>
       </c>
       <c r="U60" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="V60" s="19" t="s">
         <v>0</v>
@@ -14512,7 +14512,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AA60" s="21" t="s">
         <v>0</v>
@@ -14536,7 +14536,7 @@
         <v>922.8</v>
       </c>
       <c r="AH60" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AI60" s="18" t="s">
         <v>0</v>
@@ -14560,7 +14560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AQ60" s="19" t="s">
         <v>0</v>
@@ -14575,7 +14575,7 @@
         <v>0</v>
       </c>
       <c r="AU60" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AV60" s="18" t="s">
         <v>0</v>
@@ -14596,19 +14596,19 @@
         <v>0</v>
       </c>
       <c r="BB60" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="BC60" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="BD60" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="BE60" s="18" t="s">
         <v>0</v>
       </c>
       <c r="BF60" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="BG60" s="18" t="s">
         <v>0</v>
@@ -14620,7 +14620,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="BK60" s="19" t="s">
         <v>0</v>
@@ -14631,243 +14631,243 @@
         <v>11</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C61" s="18">
         <v>35908.400000000001</v>
       </c>
       <c r="D61" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G61" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="H61" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="I61" s="18" t="s">
         <v>217</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="I61" s="18" t="s">
-        <v>220</v>
       </c>
       <c r="J61" s="18">
         <v>195612.1</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L61" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="M61" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="N61" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="O61" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="M61" s="18" t="s">
+      <c r="P61" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="N61" s="18" t="s">
+      <c r="Q61" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="O61" s="18" t="s">
+      <c r="R61" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="P61" s="18" t="s">
+      <c r="S61" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="Q61" s="18" t="s">
+      <c r="T61" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="R61" s="18" t="s">
+      <c r="U61" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="S61" s="18" t="s">
+      <c r="V61" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="T61" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="U61" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="V61" s="19" t="s">
-        <v>304</v>
-      </c>
       <c r="W61" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="X61" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y61" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z61" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="X61" s="18" t="s">
+      <c r="AA61" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="Y61" s="18" t="s">
+      <c r="AB61" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="Z61" s="18" t="s">
+      <c r="AC61" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="AA61" s="18" t="s">
+      <c r="AD61" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="AB61" s="18" t="s">
+      <c r="AE61" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="AC61" s="18" t="s">
+      <c r="AF61" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="AD61" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="AE61" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="AF61" s="18" t="s">
-        <v>552</v>
-      </c>
       <c r="AG61" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="AH61" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="AI61" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="AJ61" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="AH61" s="18" t="s">
+      <c r="AK61" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="AI61" s="18" t="s">
+      <c r="AL61" s="18" t="s">
         <v>613</v>
       </c>
-      <c r="AJ61" s="18" t="s">
+      <c r="AM61" s="18" t="s">
         <v>614</v>
       </c>
-      <c r="AK61" s="18" t="s">
+      <c r="AN61" s="18" t="s">
         <v>615</v>
       </c>
-      <c r="AL61" s="18" t="s">
+      <c r="AO61" s="18" t="s">
         <v>616</v>
       </c>
-      <c r="AM61" s="18" t="s">
+      <c r="AP61" s="18" t="s">
         <v>617</v>
       </c>
-      <c r="AN61" s="18" t="s">
+      <c r="AQ61" s="19" t="s">
         <v>618</v>
       </c>
-      <c r="AO61" s="18" t="s">
-        <v>619</v>
-      </c>
-      <c r="AP61" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="AQ61" s="19" t="s">
-        <v>621</v>
-      </c>
       <c r="AR61" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="AS61" s="18" t="s">
+        <v>874</v>
+      </c>
+      <c r="AT61" s="18" t="s">
+        <v>875</v>
+      </c>
+      <c r="AU61" s="18" t="s">
         <v>876</v>
       </c>
-      <c r="AS61" s="18" t="s">
+      <c r="AV61" s="18" t="s">
         <v>877</v>
       </c>
-      <c r="AT61" s="18" t="s">
+      <c r="AW61" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="AU61" s="18" t="s">
+      <c r="AX61" s="18" t="s">
         <v>879</v>
       </c>
-      <c r="AV61" s="18" t="s">
+      <c r="AY61" s="18" t="s">
         <v>880</v>
       </c>
-      <c r="AW61" s="18" t="s">
+      <c r="AZ61" s="18" t="s">
         <v>881</v>
       </c>
-      <c r="AX61" s="18" t="s">
+      <c r="BA61" s="18" t="s">
         <v>882</v>
       </c>
-      <c r="AY61" s="18" t="s">
-        <v>883</v>
-      </c>
-      <c r="AZ61" s="18" t="s">
-        <v>884</v>
-      </c>
-      <c r="BA61" s="18" t="s">
-        <v>885</v>
-      </c>
       <c r="BB61" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="BC61" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="BD61" s="18" t="s">
+        <v>945</v>
+      </c>
+      <c r="BE61" s="18" t="s">
         <v>946</v>
       </c>
-      <c r="BC61" s="18" t="s">
+      <c r="BF61" s="18" t="s">
         <v>947</v>
       </c>
-      <c r="BD61" s="18" t="s">
+      <c r="BG61" s="18" t="s">
         <v>948</v>
       </c>
-      <c r="BE61" s="18" t="s">
+      <c r="BH61" s="18" t="s">
         <v>949</v>
       </c>
-      <c r="BF61" s="18" t="s">
+      <c r="BI61" s="18" t="s">
         <v>950</v>
       </c>
-      <c r="BG61" s="18" t="s">
+      <c r="BJ61" s="18" t="s">
         <v>951</v>
       </c>
-      <c r="BH61" s="18" t="s">
+      <c r="BK61" s="19" t="s">
         <v>952</v>
-      </c>
-      <c r="BI61" s="18" t="s">
-        <v>953</v>
-      </c>
-      <c r="BJ61" s="18" t="s">
-        <v>954</v>
-      </c>
-      <c r="BK61" s="19" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="62" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C62" s="18">
         <v>935.9</v>
       </c>
       <c r="D62" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="G62" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="H62" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="I62" s="18" t="s">
         <v>309</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>312</v>
       </c>
       <c r="J62" s="18">
         <v>9708.9</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L62" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="M62" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="N62" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="O62" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="M62" s="18" t="s">
+      <c r="P62" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="N62" s="18" t="s">
+      <c r="Q62" s="18" t="s">
         <v>364</v>
-      </c>
-      <c r="O62" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="P62" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q62" s="18" t="s">
-        <v>367</v>
       </c>
       <c r="R62" s="18">
         <v>1888.4</v>
@@ -14885,135 +14885,135 @@
         <v>2557.3000000000002</v>
       </c>
       <c r="W62" s="18" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="X62" s="18">
         <v>979.4</v>
       </c>
       <c r="Y62" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="Z62" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA62" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB62" s="18" t="s">
         <v>623</v>
       </c>
-      <c r="Z62" s="18" t="s">
+      <c r="AC62" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="AA62" s="18" t="s">
+      <c r="AD62" s="18" t="s">
         <v>625</v>
       </c>
-      <c r="AB62" s="18" t="s">
+      <c r="AE62" s="18" t="s">
         <v>626</v>
       </c>
-      <c r="AC62" s="18" t="s">
+      <c r="AF62" s="18" t="s">
         <v>627</v>
       </c>
-      <c r="AD62" s="18" t="s">
-        <v>628</v>
-      </c>
-      <c r="AE62" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="AF62" s="18" t="s">
-        <v>630</v>
-      </c>
       <c r="AG62" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="AH62" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="AI62" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="AJ62" s="18" t="s">
         <v>674</v>
       </c>
-      <c r="AH62" s="18" t="s">
+      <c r="AK62" s="18" t="s">
         <v>675</v>
       </c>
-      <c r="AI62" s="18" t="s">
+      <c r="AL62" s="18" t="s">
         <v>676</v>
       </c>
-      <c r="AJ62" s="18" t="s">
+      <c r="AM62" s="18" t="s">
         <v>677</v>
       </c>
-      <c r="AK62" s="18" t="s">
+      <c r="AN62" s="18" t="s">
         <v>678</v>
       </c>
-      <c r="AL62" s="18" t="s">
+      <c r="AO62" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="AM62" s="18" t="s">
+      <c r="AP62" s="18" t="s">
         <v>680</v>
       </c>
-      <c r="AN62" s="18" t="s">
+      <c r="AQ62" s="19" t="s">
         <v>681</v>
       </c>
-      <c r="AO62" s="18" t="s">
-        <v>682</v>
-      </c>
-      <c r="AP62" s="18" t="s">
-        <v>683</v>
-      </c>
-      <c r="AQ62" s="19" t="s">
-        <v>684</v>
-      </c>
       <c r="AR62" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="AS62" s="18" t="s">
+        <v>954</v>
+      </c>
+      <c r="AT62" s="18" t="s">
+        <v>955</v>
+      </c>
+      <c r="AU62" s="18" t="s">
         <v>956</v>
       </c>
-      <c r="AS62" s="18" t="s">
+      <c r="AV62" s="18" t="s">
         <v>957</v>
       </c>
-      <c r="AT62" s="18" t="s">
+      <c r="AW62" s="18" t="s">
         <v>958</v>
       </c>
-      <c r="AU62" s="18" t="s">
+      <c r="AX62" s="18" t="s">
         <v>959</v>
       </c>
-      <c r="AV62" s="18" t="s">
+      <c r="AY62" s="18" t="s">
         <v>960</v>
       </c>
-      <c r="AW62" s="18" t="s">
+      <c r="AZ62" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="AX62" s="18" t="s">
+      <c r="BA62" s="18" t="s">
         <v>962</v>
       </c>
-      <c r="AY62" s="18" t="s">
-        <v>963</v>
-      </c>
-      <c r="AZ62" s="18" t="s">
-        <v>964</v>
-      </c>
-      <c r="BA62" s="18" t="s">
-        <v>965</v>
-      </c>
       <c r="BB62" s="18" t="s">
+        <v>1010</v>
+      </c>
+      <c r="BC62" s="18" t="s">
+        <v>1011</v>
+      </c>
+      <c r="BD62" s="18" t="s">
+        <v>1012</v>
+      </c>
+      <c r="BE62" s="18" t="s">
         <v>1013</v>
       </c>
-      <c r="BC62" s="18" t="s">
+      <c r="BF62" s="18" t="s">
         <v>1014</v>
       </c>
-      <c r="BD62" s="18" t="s">
+      <c r="BG62" s="18" t="s">
         <v>1015</v>
       </c>
-      <c r="BE62" s="18" t="s">
+      <c r="BH62" s="18" t="s">
         <v>1016</v>
       </c>
-      <c r="BF62" s="18" t="s">
+      <c r="BI62" s="18" t="s">
         <v>1017</v>
       </c>
-      <c r="BG62" s="18" t="s">
+      <c r="BJ62" s="18" t="s">
         <v>1018</v>
       </c>
-      <c r="BH62" s="18" t="s">
+      <c r="BK62" s="19" t="s">
         <v>1019</v>
-      </c>
-      <c r="BI62" s="18" t="s">
-        <v>1020</v>
-      </c>
-      <c r="BJ62" s="18" t="s">
-        <v>1021</v>
-      </c>
-      <c r="BK62" s="19" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="63" spans="1:63" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C63" s="18">
         <v>908.6</v>
@@ -15028,34 +15028,34 @@
         <v>962.1</v>
       </c>
       <c r="G63" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="J63" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="H63" s="18" t="s">
+      <c r="K63" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="I63" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="J63" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="K63" s="18" t="s">
-        <v>320</v>
-      </c>
       <c r="L63" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M63" s="18">
         <v>723.6</v>
       </c>
       <c r="N63" s="18" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="O63" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P63" s="18" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q63" s="18">
         <v>598.70000000000005</v>
@@ -15064,136 +15064,136 @@
         <v>663.3</v>
       </c>
       <c r="S63" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="T63" s="18">
         <v>2079</v>
       </c>
       <c r="U63" s="18" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="V63" s="19">
         <v>265.7</v>
       </c>
       <c r="W63" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="X63" s="18" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="Y63" s="18" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="Z63" s="18">
         <v>307.89999999999998</v>
       </c>
       <c r="AA63" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB63" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="AC63" s="18" t="s">
+        <v>633</v>
+      </c>
+      <c r="AD63" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="AB63" s="18" t="s">
+      <c r="AE63" s="18" t="s">
         <v>635</v>
       </c>
-      <c r="AC63" s="18" t="s">
+      <c r="AF63" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="AD63" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="AE63" s="18" t="s">
-        <v>638</v>
-      </c>
-      <c r="AF63" s="18" t="s">
-        <v>639</v>
-      </c>
       <c r="AG63" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="AH63" s="18" t="s">
+        <v>683</v>
+      </c>
+      <c r="AI63" s="18" t="s">
+        <v>684</v>
+      </c>
+      <c r="AJ63" s="18" t="s">
         <v>685</v>
       </c>
-      <c r="AH63" s="18" t="s">
+      <c r="AK63" s="18" t="s">
         <v>686</v>
-      </c>
-      <c r="AI63" s="18" t="s">
-        <v>687</v>
-      </c>
-      <c r="AJ63" s="18" t="s">
-        <v>688</v>
-      </c>
-      <c r="AK63" s="18" t="s">
-        <v>689</v>
       </c>
       <c r="AL63" s="18">
         <v>627.5</v>
       </c>
       <c r="AM63" s="18" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="AN63" s="18">
         <v>906.7</v>
       </c>
       <c r="AO63" s="18" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="AP63" s="18" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="AQ63" s="19">
         <v>595.1</v>
       </c>
       <c r="AR63" s="18" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="AS63" s="18" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="AT63" s="18" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="AU63" s="18">
         <v>601</v>
       </c>
       <c r="AV63" s="18" t="s">
+        <v>966</v>
+      </c>
+      <c r="AW63" s="18" t="s">
+        <v>967</v>
+      </c>
+      <c r="AX63" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="AY63" s="18" t="s">
         <v>969</v>
       </c>
-      <c r="AW63" s="18" t="s">
+      <c r="AZ63" s="18" t="s">
         <v>970</v>
       </c>
-      <c r="AX63" s="18" t="s">
+      <c r="BA63" s="18" t="s">
         <v>971</v>
       </c>
-      <c r="AY63" s="18" t="s">
-        <v>972</v>
-      </c>
-      <c r="AZ63" s="18" t="s">
-        <v>973</v>
-      </c>
-      <c r="BA63" s="18" t="s">
-        <v>974</v>
-      </c>
       <c r="BB63" s="18" t="s">
+        <v>1020</v>
+      </c>
+      <c r="BC63" s="18" t="s">
+        <v>1021</v>
+      </c>
+      <c r="BD63" s="18" t="s">
+        <v>1022</v>
+      </c>
+      <c r="BE63" s="18" t="s">
         <v>1023</v>
       </c>
-      <c r="BC63" s="18" t="s">
+      <c r="BF63" s="18" t="s">
         <v>1024</v>
-      </c>
-      <c r="BD63" s="18" t="s">
-        <v>1025</v>
-      </c>
-      <c r="BE63" s="18" t="s">
-        <v>1026</v>
-      </c>
-      <c r="BF63" s="18" t="s">
-        <v>1027</v>
       </c>
       <c r="BG63" s="18">
         <v>663</v>
       </c>
       <c r="BH63" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="BI63" s="18" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="BJ63" s="18" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="BK63" s="19">
         <v>636.20000000000005</v>
@@ -15201,7 +15201,7 @@
     </row>
     <row r="64" spans="1:63" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -15268,49 +15268,49 @@
     </row>
     <row r="65" spans="1:64" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C65" s="18">
         <v>3673</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F65" s="18">
         <v>351.1</v>
       </c>
       <c r="G65" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="J65" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="H65" s="18" t="s">
+      <c r="K65" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="I65" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="J65" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="K65" s="18" t="s">
-        <v>330</v>
-      </c>
       <c r="L65" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M65" s="18">
         <v>320.8</v>
       </c>
       <c r="N65" s="18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="O65" s="18" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P65" s="18">
         <v>864.6</v>
@@ -15319,147 +15319,147 @@
         <v>531.29999999999995</v>
       </c>
       <c r="R65" s="18" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="S65" s="18">
         <v>2595</v>
       </c>
       <c r="T65" s="18" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="U65" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="V65" s="19">
         <v>437</v>
       </c>
       <c r="W65" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="X65" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y65" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z65" s="18" t="s">
         <v>640</v>
-      </c>
-      <c r="X65" s="18" t="s">
-        <v>641</v>
-      </c>
-      <c r="Y65" s="18" t="s">
-        <v>642</v>
-      </c>
-      <c r="Z65" s="18" t="s">
-        <v>643</v>
       </c>
       <c r="AA65" s="18">
         <v>644.70000000000005</v>
       </c>
       <c r="AB65" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="AC65" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="AD65" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE65" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="AC65" s="18" t="s">
+      <c r="AF65" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="AD65" s="18" t="s">
-        <v>646</v>
-      </c>
-      <c r="AE65" s="18" t="s">
-        <v>647</v>
-      </c>
-      <c r="AF65" s="18" t="s">
-        <v>648</v>
-      </c>
       <c r="AG65" s="18" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="AH65" s="18">
         <v>434.2</v>
       </c>
       <c r="AI65" s="18" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="AJ65" s="18" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="AK65" s="18" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="AL65" s="18">
         <v>399.9</v>
       </c>
       <c r="AM65" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="AN65" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="AO65" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="AP65" s="18" t="s">
         <v>697</v>
       </c>
-      <c r="AN65" s="18" t="s">
+      <c r="AQ65" s="19" t="s">
         <v>698</v>
       </c>
-      <c r="AO65" s="18" t="s">
-        <v>699</v>
-      </c>
-      <c r="AP65" s="18" t="s">
-        <v>700</v>
-      </c>
-      <c r="AQ65" s="19" t="s">
-        <v>701</v>
-      </c>
       <c r="AR65" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="AS65" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="AT65" s="18" t="s">
+        <v>974</v>
+      </c>
+      <c r="AU65" s="18" t="s">
         <v>975</v>
       </c>
-      <c r="AS65" s="18" t="s">
+      <c r="AV65" s="18" t="s">
         <v>976</v>
       </c>
-      <c r="AT65" s="18" t="s">
+      <c r="AW65" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="AU65" s="18" t="s">
+      <c r="AX65" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="AV65" s="18" t="s">
+      <c r="AY65" s="18" t="s">
         <v>979</v>
       </c>
-      <c r="AW65" s="18" t="s">
+      <c r="AZ65" s="18" t="s">
         <v>980</v>
       </c>
-      <c r="AX65" s="18" t="s">
+      <c r="BA65" s="18" t="s">
         <v>981</v>
       </c>
-      <c r="AY65" s="18" t="s">
-        <v>982</v>
-      </c>
-      <c r="AZ65" s="18" t="s">
-        <v>983</v>
-      </c>
-      <c r="BA65" s="18" t="s">
-        <v>984</v>
-      </c>
       <c r="BB65" s="18" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="BC65" s="18">
         <v>266.89999999999998</v>
       </c>
       <c r="BD65" s="18" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="BE65" s="18" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="BF65" s="18" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="BG65" s="18">
         <v>561.20000000000005</v>
       </c>
       <c r="BH65" s="18" t="s">
+        <v>1031</v>
+      </c>
+      <c r="BI65" s="18" t="s">
+        <v>1032</v>
+      </c>
+      <c r="BJ65" s="18" t="s">
+        <v>1033</v>
+      </c>
+      <c r="BK65" s="19" t="s">
         <v>1034</v>
-      </c>
-      <c r="BI65" s="18" t="s">
-        <v>1035</v>
-      </c>
-      <c r="BJ65" s="18" t="s">
-        <v>1036</v>
-      </c>
-      <c r="BK65" s="19" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="66" spans="1:64" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B66" s="18">
         <v>437.7</v>
@@ -15650,7 +15650,7 @@
     </row>
     <row r="67" spans="1:64" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B67" s="23">
         <v>8571</v>
@@ -15659,31 +15659,31 @@
         <v>1637</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F67" s="23">
         <v>499</v>
       </c>
       <c r="G67" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="J67" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="K67" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="I67" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="J67" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="K67" s="23" t="s">
-        <v>339</v>
-      </c>
       <c r="L67" s="23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M67" s="23">
         <v>192</v>
@@ -15692,31 +15692,31 @@
         <v>928</v>
       </c>
       <c r="O67" s="23" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P67" s="23" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q67" s="23">
         <v>978</v>
       </c>
       <c r="R67" s="23" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="S67" s="23">
         <v>734</v>
       </c>
       <c r="T67" s="23" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="U67" s="23" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="V67" s="24">
         <v>524</v>
       </c>
       <c r="W67" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="X67" s="23">
         <v>741</v>
@@ -15731,22 +15731,22 @@
         <v>365</v>
       </c>
       <c r="AB67" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="AC67" s="23" t="s">
+        <v>648</v>
+      </c>
+      <c r="AD67" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="AE67" s="23" t="s">
         <v>650</v>
       </c>
-      <c r="AC67" s="23" t="s">
+      <c r="AF67" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="AD67" s="23" t="s">
-        <v>652</v>
-      </c>
-      <c r="AE67" s="23" t="s">
-        <v>653</v>
-      </c>
-      <c r="AF67" s="23" t="s">
-        <v>654</v>
-      </c>
       <c r="AG67" s="23" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="AH67" s="23">
         <v>282</v>
@@ -15755,37 +15755,37 @@
         <v>479</v>
       </c>
       <c r="AJ67" s="23" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="AK67" s="23" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="AL67" s="23">
         <v>752</v>
       </c>
       <c r="AM67" s="23" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="AN67" s="23">
         <v>773</v>
       </c>
       <c r="AO67" s="23" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="AP67" s="23" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="AQ67" s="24">
         <v>197</v>
       </c>
       <c r="AR67" s="23" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="AS67" s="23" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="AT67" s="23" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="AU67" s="23">
         <v>809</v>
@@ -15794,22 +15794,22 @@
         <v>782</v>
       </c>
       <c r="AW67" s="23" t="s">
+        <v>985</v>
+      </c>
+      <c r="AX67" s="23" t="s">
+        <v>986</v>
+      </c>
+      <c r="AY67" s="23" t="s">
+        <v>987</v>
+      </c>
+      <c r="AZ67" s="23" t="s">
         <v>988</v>
       </c>
-      <c r="AX67" s="23" t="s">
+      <c r="BA67" s="23" t="s">
         <v>989</v>
       </c>
-      <c r="AY67" s="23" t="s">
-        <v>990</v>
-      </c>
-      <c r="AZ67" s="23" t="s">
-        <v>991</v>
-      </c>
-      <c r="BA67" s="23" t="s">
-        <v>992</v>
-      </c>
       <c r="BB67" s="23" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="BC67" s="23">
         <v>676</v>
@@ -15818,22 +15818,22 @@
         <v>791</v>
       </c>
       <c r="BE67" s="23" t="s">
+        <v>1036</v>
+      </c>
+      <c r="BF67" s="23" t="s">
+        <v>1037</v>
+      </c>
+      <c r="BG67" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH67" s="23" t="s">
+        <v>1038</v>
+      </c>
+      <c r="BI67" s="23" t="s">
         <v>1039</v>
       </c>
-      <c r="BF67" s="23" t="s">
+      <c r="BJ67" s="23" t="s">
         <v>1040</v>
-      </c>
-      <c r="BG67" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH67" s="23" t="s">
-        <v>1041</v>
-      </c>
-      <c r="BI67" s="23" t="s">
-        <v>1042</v>
-      </c>
-      <c r="BJ67" s="23" t="s">
-        <v>1043</v>
       </c>
       <c r="BK67" s="24">
         <v>24</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="68" spans="1:64" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -15908,7 +15908,7 @@
     </row>
     <row r="69" spans="1:64" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B69" s="23" t="s">
         <v>0</v>
@@ -15992,7 +15992,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="23" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AD69" s="23">
         <v>350</v>
@@ -16099,7 +16099,7 @@
     </row>
     <row r="70" spans="1:64" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B70" s="23">
         <v>792</v>
@@ -16120,10 +16120,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J70" s="23" t="s">
         <v>0</v>
@@ -16132,7 +16132,7 @@
         <v>350</v>
       </c>
       <c r="L70" s="23" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M70" s="23" t="s">
         <v>0</v>
@@ -16144,7 +16144,7 @@
         <v>450</v>
       </c>
       <c r="P70" s="23" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q70" s="23" t="s">
         <v>0</v>
@@ -16180,7 +16180,7 @@
         <v>500</v>
       </c>
       <c r="AB70" s="23" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AC70" s="23" t="s">
         <v>0</v>
@@ -16189,7 +16189,7 @@
         <v>475</v>
       </c>
       <c r="AE70" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AF70" s="23" t="s">
         <v>0</v>
@@ -16213,7 +16213,7 @@
         <v>0</v>
       </c>
       <c r="AM70" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AN70" s="23">
         <v>600</v>
@@ -16222,13 +16222,13 @@
         <v>650</v>
       </c>
       <c r="AP70" s="23" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AQ70" s="24">
         <v>925</v>
       </c>
       <c r="AR70" s="23" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="AS70" s="23" t="s">
         <v>0</v>
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="AY70" s="23" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="AZ70" s="23">
         <v>600</v>
@@ -16258,19 +16258,19 @@
         <v>0</v>
       </c>
       <c r="BB70" s="23" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="BC70" s="23">
         <v>850</v>
       </c>
       <c r="BD70" s="23" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="BE70" s="23" t="s">
         <v>0</v>
       </c>
       <c r="BF70" s="23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="BG70" s="23" t="s">
         <v>0</v>
@@ -16279,7 +16279,7 @@
         <v>825</v>
       </c>
       <c r="BI70" s="23" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="BJ70" s="23" t="s">
         <v>0</v>
@@ -16290,7 +16290,7 @@
     </row>
     <row r="71" spans="1:64" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B71" s="23" t="s">
         <v>0</v>
@@ -16481,7 +16481,7 @@
     </row>
     <row r="72" spans="1:64" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B72" s="23">
         <v>68</v>
@@ -16502,7 +16502,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I72" s="23" t="s">
         <v>0</v>
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="AG72" s="23" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="AH72" s="23">
         <v>25</v>
@@ -16672,7 +16672,7 @@
     </row>
     <row r="73" spans="1:64" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -16739,16 +16739,16 @@
     </row>
     <row r="74" spans="1:64" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B74" s="18">
         <v>99542.2</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E74" s="18">
         <v>15521</v>
@@ -16763,174 +16763,174 @@
         <v>57174.6</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K74" s="18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L74" s="18">
         <v>31193.1</v>
       </c>
       <c r="M74" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="N74" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="O74" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="P74" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="N74" s="18" t="s">
+      <c r="Q74" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="O74" s="18" t="s">
+      <c r="R74" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="P74" s="18" t="s">
+      <c r="S74" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="Q74" s="18" t="s">
+      <c r="T74" s="18" t="s">
         <v>390</v>
-      </c>
-      <c r="R74" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="S74" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="T74" s="18" t="s">
-        <v>393</v>
       </c>
       <c r="U74" s="18">
         <v>23692.7</v>
       </c>
       <c r="V74" s="19" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="W74" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="X74" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y74" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="Z74" s="18" t="s">
         <v>657</v>
       </c>
-      <c r="X74" s="18" t="s">
+      <c r="AA74" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="Y74" s="18" t="s">
+      <c r="AB74" s="18" t="s">
         <v>659</v>
       </c>
-      <c r="Z74" s="18" t="s">
+      <c r="AC74" s="18" t="s">
         <v>660</v>
       </c>
-      <c r="AA74" s="18" t="s">
+      <c r="AD74" s="18" t="s">
         <v>661</v>
       </c>
-      <c r="AB74" s="18" t="s">
+      <c r="AE74" s="18" t="s">
         <v>662</v>
       </c>
-      <c r="AC74" s="18" t="s">
+      <c r="AF74" s="18" t="s">
         <v>663</v>
       </c>
-      <c r="AD74" s="18" t="s">
-        <v>664</v>
-      </c>
-      <c r="AE74" s="18" t="s">
-        <v>665</v>
-      </c>
-      <c r="AF74" s="18" t="s">
-        <v>666</v>
-      </c>
       <c r="AG74" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="AH74" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="AI74" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="AJ74" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="AH74" s="18" t="s">
+      <c r="AK74" s="18" t="s">
         <v>711</v>
       </c>
-      <c r="AI74" s="18" t="s">
+      <c r="AL74" s="18" t="s">
         <v>712</v>
       </c>
-      <c r="AJ74" s="18" t="s">
+      <c r="AM74" s="18" t="s">
         <v>713</v>
       </c>
-      <c r="AK74" s="18" t="s">
+      <c r="AN74" s="18" t="s">
         <v>714</v>
       </c>
-      <c r="AL74" s="18" t="s">
+      <c r="AO74" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="AM74" s="18" t="s">
+      <c r="AP74" s="18" t="s">
         <v>716</v>
       </c>
-      <c r="AN74" s="18" t="s">
+      <c r="AQ74" s="19" t="s">
         <v>717</v>
       </c>
-      <c r="AO74" s="18" t="s">
-        <v>718</v>
-      </c>
-      <c r="AP74" s="18" t="s">
-        <v>719</v>
-      </c>
-      <c r="AQ74" s="19" t="s">
-        <v>720</v>
-      </c>
       <c r="AR74" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="AS74" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="AT74" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="AU74" s="18" t="s">
         <v>995</v>
       </c>
-      <c r="AS74" s="18" t="s">
+      <c r="AV74" s="18" t="s">
         <v>996</v>
       </c>
-      <c r="AT74" s="18" t="s">
+      <c r="AW74" s="18" t="s">
         <v>997</v>
       </c>
-      <c r="AU74" s="18" t="s">
+      <c r="AX74" s="18" t="s">
         <v>998</v>
       </c>
-      <c r="AV74" s="18" t="s">
+      <c r="AY74" s="18" t="s">
         <v>999</v>
       </c>
-      <c r="AW74" s="18" t="s">
+      <c r="AZ74" s="18" t="s">
         <v>1000</v>
       </c>
-      <c r="AX74" s="18" t="s">
+      <c r="BA74" s="18" t="s">
         <v>1001</v>
       </c>
-      <c r="AY74" s="18" t="s">
-        <v>1002</v>
-      </c>
-      <c r="AZ74" s="18" t="s">
-        <v>1003</v>
-      </c>
-      <c r="BA74" s="18" t="s">
-        <v>1004</v>
-      </c>
       <c r="BB74" s="18" t="s">
+        <v>1044</v>
+      </c>
+      <c r="BC74" s="18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="BD74" s="18" t="s">
+        <v>1046</v>
+      </c>
+      <c r="BE74" s="18" t="s">
         <v>1047</v>
       </c>
-      <c r="BC74" s="18" t="s">
+      <c r="BF74" s="18" t="s">
         <v>1048</v>
       </c>
-      <c r="BD74" s="18" t="s">
+      <c r="BG74" s="18" t="s">
         <v>1049</v>
       </c>
-      <c r="BE74" s="18" t="s">
+      <c r="BH74" s="18" t="s">
         <v>1050</v>
       </c>
-      <c r="BF74" s="18" t="s">
+      <c r="BI74" s="18" t="s">
         <v>1051</v>
       </c>
-      <c r="BG74" s="18" t="s">
+      <c r="BJ74" s="18" t="s">
         <v>1052</v>
       </c>
-      <c r="BH74" s="18" t="s">
+      <c r="BK74" s="19" t="s">
         <v>1053</v>
-      </c>
-      <c r="BI74" s="18" t="s">
-        <v>1054</v>
-      </c>
-      <c r="BJ74" s="18" t="s">
-        <v>1055</v>
-      </c>
-      <c r="BK74" s="19" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="75" spans="1:64" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B75" s="18">
         <v>100.6</v>
@@ -17121,7 +17121,7 @@
     </row>
     <row r="76" spans="1:64" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B76" s="18">
         <v>3000.2</v>
@@ -17130,7 +17130,7 @@
         <v>512.9</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E76" s="18">
         <v>422.8</v>
@@ -17145,13 +17145,13 @@
         <v>4685.7</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L76" s="18">
         <v>2103</v>
@@ -17160,7 +17160,7 @@
         <v>447.6</v>
       </c>
       <c r="N76" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O76" s="18">
         <v>896.9</v>
@@ -17169,150 +17169,150 @@
         <v>815.5</v>
       </c>
       <c r="Q76" s="18" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="R76" s="18">
         <v>864.7</v>
       </c>
       <c r="S76" s="18" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="T76" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="U76" s="18">
         <v>797</v>
       </c>
       <c r="V76" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="W76" s="18" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="X76" s="18">
         <v>568.79999999999995</v>
       </c>
       <c r="Y76" s="18" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="Z76" s="18">
         <v>398.4</v>
       </c>
       <c r="AA76" s="18" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="AB76" s="18">
         <v>903</v>
       </c>
       <c r="AC76" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="AD76" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="AE76" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="AF76" s="18" t="s">
         <v>670</v>
       </c>
-      <c r="AD76" s="18" t="s">
-        <v>671</v>
-      </c>
-      <c r="AE76" s="18" t="s">
-        <v>672</v>
-      </c>
-      <c r="AF76" s="18" t="s">
-        <v>673</v>
-      </c>
       <c r="AG76" s="18" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="AH76" s="18">
         <v>460.3</v>
       </c>
       <c r="AI76" s="18" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="AJ76" s="18" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="AK76" s="18">
         <v>816.9</v>
       </c>
       <c r="AL76" s="18" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="AM76" s="18">
         <v>942.2</v>
       </c>
       <c r="AN76" s="18" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="AO76" s="18" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="AP76" s="18">
         <v>693.7</v>
       </c>
       <c r="AQ76" s="19" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="AR76" s="18" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AS76" s="18">
         <v>736.8</v>
       </c>
       <c r="AT76" s="18" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="AU76" s="18">
         <v>488.7</v>
       </c>
       <c r="AV76" s="18" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AW76" s="18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AX76" s="18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AY76" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="AW76" s="18" t="s">
+      <c r="AZ76" s="18" t="s">
         <v>1008</v>
       </c>
-      <c r="AX76" s="18" t="s">
+      <c r="BA76" s="18" t="s">
         <v>1009</v>
       </c>
-      <c r="AY76" s="18" t="s">
-        <v>1010</v>
-      </c>
-      <c r="AZ76" s="18" t="s">
-        <v>1011</v>
-      </c>
-      <c r="BA76" s="18" t="s">
-        <v>1012</v>
-      </c>
       <c r="BB76" s="18" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="BC76" s="18">
         <v>622.9</v>
       </c>
       <c r="BD76" s="18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="BE76" s="18" t="s">
+        <v>1056</v>
+      </c>
+      <c r="BF76" s="18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="BG76" s="18" t="s">
         <v>1058</v>
       </c>
-      <c r="BE76" s="18" t="s">
+      <c r="BH76" s="18" t="s">
         <v>1059</v>
       </c>
-      <c r="BF76" s="18" t="s">
+      <c r="BI76" s="18" t="s">
         <v>1060</v>
       </c>
-      <c r="BG76" s="18" t="s">
+      <c r="BJ76" s="18" t="s">
         <v>1061</v>
       </c>
-      <c r="BH76" s="18" t="s">
+      <c r="BK76" s="19" t="s">
         <v>1062</v>
-      </c>
-      <c r="BI76" s="18" t="s">
-        <v>1063</v>
-      </c>
-      <c r="BJ76" s="18" t="s">
-        <v>1064</v>
-      </c>
-      <c r="BK76" s="19" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="77" spans="1:64" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B77" s="18">
         <v>135.6</v>
@@ -17336,7 +17336,7 @@
         <v>138.19999999999999</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J77" s="18">
         <v>126.7</v>
@@ -17360,7 +17360,7 @@
         <v>133.1</v>
       </c>
       <c r="Q77" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="R77" s="18">
         <v>110.2</v>

--- a/migforecasting/cities19-21/1/d10.xlsx
+++ b/migforecasting/cities19-21/1/d10.xlsx
@@ -104,9 +104,6 @@
     <t>СОЦИАЛЬНО-ЭКОНОМИЧЕСКАЯ ХАРАКТЕРИСТИКА ГОРОДОВ  МОСКОВСКОЙ ОБЛАСТИ С ЧИСЛЕННОСТЬЮ НАСЕЛЕНИЯ  свыше 100 тысяч человек</t>
   </si>
   <si>
-    <t>Сергиев  Посад</t>
-  </si>
-  <si>
     <t>НАСЕЛЕНИЕ</t>
   </si>
   <si>
@@ -4823,6 +4820,9 @@
   </si>
   <si>
     <t>Орехово-Зуево</t>
+  </si>
+  <si>
+    <t>Сергиев Посад</t>
   </si>
 </sst>
 </file>
@@ -5390,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BL5" sqref="BL5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5464,7 +5464,7 @@
         <v>12</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="N3" s="16" t="s">
         <v>13</v>
@@ -5473,13 +5473,13 @@
         <v>14</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="Q3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>22</v>
+        <v>1065</v>
       </c>
       <c r="S3" s="16" t="s">
         <v>16</v>
@@ -5491,7 +5491,7 @@
         <v>18</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="W3" s="34" t="s">
         <v>1</v>
@@ -5527,7 +5527,7 @@
         <v>12</v>
       </c>
       <c r="AH3" s="16" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AI3" s="16" t="s">
         <v>13</v>
@@ -5536,13 +5536,13 @@
         <v>14</v>
       </c>
       <c r="AK3" s="16" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AL3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="AM3" s="16" t="s">
-        <v>22</v>
+        <v>1065</v>
       </c>
       <c r="AN3" s="16" t="s">
         <v>16</v>
@@ -5554,7 +5554,7 @@
         <v>18</v>
       </c>
       <c r="AQ3" s="17" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AR3" s="34" t="s">
         <v>1</v>
@@ -5590,7 +5590,7 @@
         <v>12</v>
       </c>
       <c r="BC3" s="16" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="BD3" s="16" t="s">
         <v>13</v>
@@ -5599,7 +5599,7 @@
         <v>14</v>
       </c>
       <c r="BF3" s="16" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="BG3" s="16" t="s">
         <v>15</v>
@@ -5614,7 +5614,7 @@
         <v>18</v>
       </c>
       <c r="BK3" s="17" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="4" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5807,7 +5807,7 @@
     </row>
     <row r="5" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="6" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="18">
         <v>507.4</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="7" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="8" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="18">
         <v>98.9</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="9" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="18">
         <v>44.4</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="10" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="18">
         <v>310</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="11" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="18">
         <v>98.5</v>
@@ -6856,7 +6856,7 @@
     </row>
     <row r="12" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="18">
         <v>10.9</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="13" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="18">
         <v>8</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="14" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="18">
         <v>2.9</v>
@@ -7429,16 +7429,16 @@
     </row>
     <row r="15" spans="1:65" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="C15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="D15" s="23" t="s">
         <v>35</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>36</v>
       </c>
       <c r="E15" s="23">
         <v>210</v>
@@ -7447,46 +7447,46 @@
         <v>-464</v>
       </c>
       <c r="G15" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="I15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="J15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="K15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="23" t="s">
-        <v>41</v>
-      </c>
       <c r="L15" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M15" s="23">
         <v>779</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O15" s="23">
         <v>919</v>
       </c>
       <c r="P15" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q15" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="R15" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="S15" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="S15" s="23" t="s">
+      <c r="T15" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="T15" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="U15" s="23">
         <v>589</v>
@@ -7498,13 +7498,13 @@
         <v>-748</v>
       </c>
       <c r="X15" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y15" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="Y15" s="23" t="s">
+      <c r="Z15" s="23" t="s">
         <v>398</v>
-      </c>
-      <c r="Z15" s="23" t="s">
-        <v>399</v>
       </c>
       <c r="AA15" s="23">
         <v>-553</v>
@@ -7516,10 +7516,10 @@
         <v>54</v>
       </c>
       <c r="AD15" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE15" s="23" t="s">
         <v>400</v>
-      </c>
-      <c r="AE15" s="23" t="s">
-        <v>401</v>
       </c>
       <c r="AF15" s="23">
         <v>-315</v>
@@ -7531,13 +7531,13 @@
         <v>482</v>
       </c>
       <c r="AI15" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="AJ15" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="AJ15" s="23" t="s">
+      <c r="AK15" s="23" t="s">
         <v>440</v>
-      </c>
-      <c r="AK15" s="23" t="s">
-        <v>441</v>
       </c>
       <c r="AL15" s="23">
         <v>460</v>
@@ -7555,16 +7555,16 @@
         <v>150</v>
       </c>
       <c r="AQ15" s="24" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AR15" s="23" t="s">
+        <v>724</v>
+      </c>
+      <c r="AS15" s="23" t="s">
         <v>725</v>
       </c>
-      <c r="AS15" s="23" t="s">
+      <c r="AT15" s="23" t="s">
         <v>726</v>
-      </c>
-      <c r="AT15" s="23" t="s">
-        <v>727</v>
       </c>
       <c r="AU15" s="23">
         <v>817</v>
@@ -7573,37 +7573,37 @@
         <v>-920</v>
       </c>
       <c r="AW15" s="23" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AX15" s="23">
         <v>419</v>
       </c>
       <c r="AY15" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="AZ15" s="23" t="s">
         <v>729</v>
-      </c>
-      <c r="AZ15" s="23" t="s">
-        <v>730</v>
       </c>
       <c r="BA15" s="23">
         <v>-699</v>
       </c>
       <c r="BB15" s="23" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="BC15" s="23">
         <v>902</v>
       </c>
       <c r="BD15" s="23" t="s">
+        <v>767</v>
+      </c>
+      <c r="BE15" s="23" t="s">
         <v>768</v>
       </c>
-      <c r="BE15" s="23" t="s">
+      <c r="BF15" s="23" t="s">
         <v>769</v>
       </c>
-      <c r="BF15" s="23" t="s">
+      <c r="BG15" s="23" t="s">
         <v>770</v>
-      </c>
-      <c r="BG15" s="23" t="s">
-        <v>771</v>
       </c>
       <c r="BH15" s="23">
         <v>897</v>
@@ -7615,12 +7615,12 @@
         <v>892</v>
       </c>
       <c r="BK15" s="24" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="16" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="17" spans="1:65" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="18">
         <v>57.3</v>
@@ -7878,7 +7878,7 @@
     </row>
     <row r="18" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>19</v>
@@ -7887,25 +7887,25 @@
         <v>306</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="23">
         <v>605</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18" s="23" t="s">
         <v>19</v>
@@ -7914,10 +7914,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="23" t="s">
         <v>95</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>96</v>
       </c>
       <c r="O18" s="23" t="s">
         <v>19</v>
@@ -7929,7 +7929,7 @@
         <v>19</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S18" s="23" t="s">
         <v>19</v>
@@ -7941,34 +7941,34 @@
         <v>19</v>
       </c>
       <c r="V18" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W18" s="23" t="s">
         <v>19</v>
       </c>
       <c r="X18" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y18" s="23" t="s">
         <v>402</v>
-      </c>
-      <c r="Y18" s="23" t="s">
-        <v>403</v>
       </c>
       <c r="Z18" s="23" t="s">
         <v>19</v>
       </c>
       <c r="AA18" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB18" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="AB18" s="23" t="s">
+      <c r="AC18" s="23" t="s">
         <v>405</v>
-      </c>
-      <c r="AC18" s="23" t="s">
-        <v>406</v>
       </c>
       <c r="AD18" s="23" t="s">
         <v>19</v>
       </c>
       <c r="AE18" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF18" s="23" t="s">
         <v>19</v>
@@ -7977,10 +7977,10 @@
         <v>19</v>
       </c>
       <c r="AH18" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="AI18" s="23" t="s">
         <v>443</v>
-      </c>
-      <c r="AI18" s="23" t="s">
-        <v>444</v>
       </c>
       <c r="AJ18" s="23" t="s">
         <v>19</v>
@@ -7992,19 +7992,19 @@
         <v>19</v>
       </c>
       <c r="AM18" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AN18" s="23" t="s">
         <v>19</v>
       </c>
       <c r="AO18" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AP18" s="23" t="s">
         <v>19</v>
       </c>
       <c r="AQ18" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AR18" s="23" t="s">
         <v>19</v>
@@ -8013,25 +8013,25 @@
         <v>291</v>
       </c>
       <c r="AT18" s="23" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AU18" s="23" t="s">
         <v>19</v>
       </c>
       <c r="AV18" s="23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AW18" s="23">
         <v>536</v>
       </c>
       <c r="AX18" s="23" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AY18" s="23" t="s">
         <v>19</v>
       </c>
       <c r="AZ18" s="23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="BA18" s="23" t="s">
         <v>19</v>
@@ -8040,10 +8040,10 @@
         <v>19</v>
       </c>
       <c r="BC18" s="23" t="s">
+        <v>772</v>
+      </c>
+      <c r="BD18" s="23" t="s">
         <v>773</v>
-      </c>
-      <c r="BD18" s="23" t="s">
-        <v>774</v>
       </c>
       <c r="BE18" s="23" t="s">
         <v>19</v>
@@ -8064,12 +8064,12 @@
         <v>19</v>
       </c>
       <c r="BK18" s="24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="19" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="23">
         <v>1176</v>
@@ -8138,28 +8138,28 @@
         <v>11160</v>
       </c>
       <c r="X19" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y19" s="23" t="s">
         <v>408</v>
-      </c>
-      <c r="Y19" s="23" t="s">
-        <v>409</v>
       </c>
       <c r="Z19" s="23">
         <v>2367</v>
       </c>
       <c r="AA19" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB19" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="AB19" s="23" t="s">
+      <c r="AC19" s="23" t="s">
         <v>411</v>
-      </c>
-      <c r="AC19" s="23" t="s">
-        <v>412</v>
       </c>
       <c r="AD19" s="23">
         <v>4584</v>
       </c>
       <c r="AE19" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF19" s="23">
         <v>2268</v>
@@ -8168,10 +8168,10 @@
         <v>2990</v>
       </c>
       <c r="AH19" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="AI19" s="23" t="s">
         <v>448</v>
-      </c>
-      <c r="AI19" s="23" t="s">
-        <v>449</v>
       </c>
       <c r="AJ19" s="23">
         <v>2391</v>
@@ -8183,19 +8183,19 @@
         <v>2376</v>
       </c>
       <c r="AM19" s="23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AN19" s="23">
         <v>2761</v>
       </c>
       <c r="AO19" s="23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AP19" s="23">
         <v>2800</v>
       </c>
       <c r="AQ19" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AR19" s="23">
         <v>1814</v>
@@ -8261,7 +8261,7 @@
     </row>
     <row r="20" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8274,7 +8274,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
@@ -8297,7 +8297,7 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AH20" s="12"/>
       <c r="AI20" s="12"/>
@@ -8320,7 +8320,7 @@
       <c r="AZ20" s="5"/>
       <c r="BA20" s="5"/>
       <c r="BB20" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BC20" s="12"/>
       <c r="BD20" s="12"/>
@@ -8334,198 +8334,198 @@
     </row>
     <row r="21" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="G21" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="H21" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="I21" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="J21" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="K21" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="18" t="s">
-        <v>61</v>
-      </c>
       <c r="L21" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="N21" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="O21" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="P21" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="P21" s="18" t="s">
+      <c r="Q21" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="Q21" s="18" t="s">
+      <c r="R21" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="R21" s="18" t="s">
+      <c r="S21" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="S21" s="18" t="s">
+      <c r="T21" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="T21" s="18" t="s">
+      <c r="U21" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="U21" s="18" t="s">
+      <c r="V21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="V21" s="19" t="s">
-        <v>110</v>
-      </c>
       <c r="W21" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="X21" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="X21" s="18" t="s">
+      <c r="Y21" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="Y21" s="18" t="s">
+      <c r="Z21" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="Z21" s="18" t="s">
+      <c r="AA21" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="AA21" s="18" t="s">
+      <c r="AB21" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="AB21" s="18" t="s">
+      <c r="AC21" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="AC21" s="18" t="s">
+      <c r="AD21" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="AD21" s="18" t="s">
+      <c r="AE21" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="AE21" s="18" t="s">
+      <c r="AF21" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="AF21" s="18" t="s">
-        <v>423</v>
-      </c>
       <c r="AG21" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="AH21" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="AH21" s="18" t="s">
+      <c r="AI21" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="AI21" s="18" t="s">
+      <c r="AJ21" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="AJ21" s="18" t="s">
+      <c r="AK21" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="AK21" s="18" t="s">
+      <c r="AL21" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="AL21" s="18" t="s">
+      <c r="AM21" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="AM21" s="18" t="s">
+      <c r="AN21" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="AN21" s="18" t="s">
+      <c r="AO21" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="AO21" s="18" t="s">
+      <c r="AP21" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="AP21" s="18" t="s">
+      <c r="AQ21" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="AQ21" s="19" t="s">
-        <v>463</v>
-      </c>
       <c r="AR21" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="AS21" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="AS21" s="18" t="s">
+      <c r="AT21" s="18" t="s">
         <v>736</v>
       </c>
-      <c r="AT21" s="18" t="s">
+      <c r="AU21" s="18" t="s">
         <v>737</v>
       </c>
-      <c r="AU21" s="18" t="s">
+      <c r="AV21" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="AV21" s="18" t="s">
+      <c r="AW21" s="18" t="s">
         <v>739</v>
       </c>
-      <c r="AW21" s="18" t="s">
+      <c r="AX21" s="18" t="s">
         <v>740</v>
       </c>
-      <c r="AX21" s="18" t="s">
+      <c r="AY21" s="18" t="s">
         <v>741</v>
       </c>
-      <c r="AY21" s="18" t="s">
+      <c r="AZ21" s="18" t="s">
         <v>742</v>
       </c>
-      <c r="AZ21" s="18" t="s">
+      <c r="BA21" s="18" t="s">
         <v>743</v>
       </c>
-      <c r="BA21" s="18" t="s">
-        <v>744</v>
-      </c>
       <c r="BB21" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="BC21" s="18" t="s">
         <v>776</v>
       </c>
-      <c r="BC21" s="18" t="s">
+      <c r="BD21" s="18" t="s">
         <v>777</v>
       </c>
-      <c r="BD21" s="18" t="s">
+      <c r="BE21" s="18" t="s">
         <v>778</v>
       </c>
-      <c r="BE21" s="18" t="s">
+      <c r="BF21" s="18" t="s">
         <v>779</v>
       </c>
-      <c r="BF21" s="18" t="s">
+      <c r="BG21" s="18" t="s">
         <v>780</v>
       </c>
-      <c r="BG21" s="18" t="s">
+      <c r="BH21" s="18" t="s">
         <v>781</v>
       </c>
-      <c r="BH21" s="18" t="s">
+      <c r="BI21" s="18" t="s">
         <v>782</v>
       </c>
-      <c r="BI21" s="18" t="s">
+      <c r="BJ21" s="18" t="s">
         <v>783</v>
       </c>
-      <c r="BJ21" s="18" t="s">
+      <c r="BK21" s="19" t="s">
         <v>784</v>
-      </c>
-      <c r="BK21" s="19" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="22" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>19</v>
@@ -8540,19 +8540,19 @@
         <v>19</v>
       </c>
       <c r="F22" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="H22" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K22" s="18" t="s">
         <v>19</v>
@@ -8561,7 +8561,7 @@
         <v>19</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N22" s="18" t="s">
         <v>19</v>
@@ -8576,7 +8576,7 @@
         <v>19</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S22" s="18" t="s">
         <v>19</v>
@@ -8588,7 +8588,7 @@
         <v>19</v>
       </c>
       <c r="V22" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W22" s="18" t="s">
         <v>19</v>
@@ -8603,10 +8603,10 @@
         <v>19</v>
       </c>
       <c r="AA22" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB22" s="18" t="s">
         <v>424</v>
-      </c>
-      <c r="AB22" s="18" t="s">
-        <v>425</v>
       </c>
       <c r="AC22" s="18" t="s">
         <v>19</v>
@@ -8624,7 +8624,7 @@
         <v>19</v>
       </c>
       <c r="AH22" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AI22" s="18" t="s">
         <v>19</v>
@@ -8651,84 +8651,84 @@
         <v>19</v>
       </c>
       <c r="AQ22" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AR22" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="AS22" s="18" t="s">
         <v>745</v>
       </c>
-      <c r="AS22" s="18" t="s">
+      <c r="AT22" s="18" t="s">
         <v>746</v>
       </c>
-      <c r="AT22" s="18" t="s">
+      <c r="AU22" s="18" t="s">
         <v>747</v>
       </c>
-      <c r="AU22" s="18" t="s">
+      <c r="AV22" s="18" t="s">
         <v>748</v>
       </c>
-      <c r="AV22" s="18" t="s">
+      <c r="AW22" s="18" t="s">
         <v>749</v>
       </c>
-      <c r="AW22" s="18" t="s">
+      <c r="AX22" s="18" t="s">
         <v>750</v>
       </c>
-      <c r="AX22" s="18" t="s">
+      <c r="AY22" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="AY22" s="18" t="s">
+      <c r="AZ22" s="18" t="s">
         <v>752</v>
       </c>
-      <c r="AZ22" s="18" t="s">
+      <c r="BA22" s="18" t="s">
         <v>753</v>
       </c>
-      <c r="BA22" s="18" t="s">
-        <v>754</v>
-      </c>
       <c r="BB22" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="BC22" s="18" t="s">
         <v>786</v>
       </c>
-      <c r="BC22" s="18" t="s">
+      <c r="BD22" s="18" t="s">
         <v>787</v>
       </c>
-      <c r="BD22" s="18" t="s">
+      <c r="BE22" s="18" t="s">
         <v>788</v>
       </c>
-      <c r="BE22" s="18" t="s">
+      <c r="BF22" s="18" t="s">
         <v>789</v>
       </c>
-      <c r="BF22" s="18" t="s">
+      <c r="BG22" s="18" t="s">
         <v>790</v>
       </c>
-      <c r="BG22" s="18" t="s">
+      <c r="BH22" s="18" t="s">
         <v>791</v>
       </c>
-      <c r="BH22" s="18" t="s">
+      <c r="BI22" s="18" t="s">
         <v>792</v>
       </c>
-      <c r="BI22" s="18" t="s">
+      <c r="BJ22" s="18" t="s">
         <v>793</v>
       </c>
-      <c r="BJ22" s="18" t="s">
+      <c r="BK22" s="19" t="s">
         <v>794</v>
-      </c>
-      <c r="BK22" s="19" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="23" spans="1:65" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="18">
         <v>60.2</v>
@@ -8740,58 +8740,58 @@
         <v>83.9</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23" s="18">
         <v>61</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M23" s="18">
         <v>73.599999999999994</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R23" s="18">
         <v>75.2</v>
       </c>
       <c r="S23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V23" s="19">
         <v>48.6</v>
       </c>
       <c r="W23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA23" s="18">
         <v>59.3</v>
@@ -8800,46 +8800,46 @@
         <v>63.4</v>
       </c>
       <c r="AC23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH23" s="18">
         <v>72.400000000000006</v>
       </c>
       <c r="AI23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AJ23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AK23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AL23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AM23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AO23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AQ23" s="19">
         <v>47.8</v>
@@ -8907,7 +8907,7 @@
     </row>
     <row r="24" spans="1:65" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="18">
         <v>29.4</v>
@@ -8916,61 +8916,61 @@
         <v>30.7</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="18">
         <v>23.2</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="18">
         <v>26.8</v>
       </c>
       <c r="H24" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="J24" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="K24" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="K24" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="L24" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="M24" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="N24" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="O24" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="P24" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="P24" s="18" t="s">
-        <v>118</v>
       </c>
       <c r="Q24" s="18">
         <v>31.3</v>
       </c>
       <c r="R24" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="S24" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="S24" s="18" t="s">
-        <v>120</v>
       </c>
       <c r="T24" s="18">
         <v>36.799999999999997</v>
       </c>
       <c r="U24" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="V24" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="V24" s="19" t="s">
-        <v>122</v>
       </c>
       <c r="W24" s="18">
         <v>30.4</v>
@@ -8979,61 +8979,61 @@
         <v>30.5</v>
       </c>
       <c r="Y24" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Z24" s="18">
         <v>23.2</v>
       </c>
       <c r="AA24" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AB24" s="18">
         <v>30.1</v>
       </c>
       <c r="AC24" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="AD24" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="AD24" s="18" t="s">
+      <c r="AE24" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="AE24" s="18" t="s">
+      <c r="AF24" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="AF24" s="18" t="s">
-        <v>431</v>
-      </c>
       <c r="AG24" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="AH24" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="AH24" s="18" t="s">
+      <c r="AI24" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ24" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="AI24" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ24" s="18" t="s">
+      <c r="AK24" s="18" t="s">
         <v>468</v>
-      </c>
-      <c r="AK24" s="18" t="s">
-        <v>469</v>
       </c>
       <c r="AL24" s="18">
         <v>32</v>
       </c>
       <c r="AM24" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="AN24" s="18" t="s">
         <v>470</v>
-      </c>
-      <c r="AN24" s="18" t="s">
-        <v>471</v>
       </c>
       <c r="AO24" s="18">
         <v>37.4</v>
       </c>
       <c r="AP24" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="AQ24" s="19" t="s">
         <v>472</v>
-      </c>
-      <c r="AQ24" s="19" t="s">
-        <v>473</v>
       </c>
       <c r="AR24" s="18">
         <v>30.8</v>
@@ -9042,63 +9042,63 @@
         <v>30.7</v>
       </c>
       <c r="AT24" s="18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AU24" s="18">
         <v>23.4</v>
       </c>
       <c r="AV24" s="18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AW24" s="18">
         <v>38.4</v>
       </c>
       <c r="AX24" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="AY24" s="18" t="s">
         <v>757</v>
       </c>
-      <c r="AY24" s="18" t="s">
+      <c r="AZ24" s="18" t="s">
         <v>758</v>
       </c>
-      <c r="AZ24" s="18" t="s">
+      <c r="BA24" s="18" t="s">
         <v>759</v>
       </c>
-      <c r="BA24" s="18" t="s">
-        <v>760</v>
-      </c>
       <c r="BB24" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="BC24" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="BD24" s="18" t="s">
         <v>796</v>
       </c>
-      <c r="BC24" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="BD24" s="18" t="s">
+      <c r="BE24" s="18" t="s">
         <v>797</v>
       </c>
-      <c r="BE24" s="18" t="s">
+      <c r="BF24" s="18" t="s">
         <v>798</v>
-      </c>
-      <c r="BF24" s="18" t="s">
-        <v>799</v>
       </c>
       <c r="BG24" s="18">
         <v>32.200000000000003</v>
       </c>
       <c r="BH24" s="18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="BI24" s="18">
         <v>38.6</v>
       </c>
       <c r="BJ24" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BK24" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="25" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="18">
         <v>20.7</v>
@@ -9289,7 +9289,7 @@
     </row>
     <row r="26" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="18">
         <v>28.1</v>
@@ -9480,7 +9480,7 @@
     </row>
     <row r="27" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -9547,7 +9547,7 @@
     </row>
     <row r="28" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="23">
         <v>956</v>
@@ -9649,7 +9649,7 @@
         <v>637</v>
       </c>
       <c r="AI28" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AJ28" s="23" t="s">
         <v>19</v>
@@ -9676,7 +9676,7 @@
         <v>294</v>
       </c>
       <c r="AR28" s="18" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AS28" s="18">
         <v>346</v>
@@ -9706,13 +9706,13 @@
         <v>541</v>
       </c>
       <c r="BB28" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="BC28" s="18">
         <v>634</v>
       </c>
       <c r="BD28" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="BE28" s="18" t="s">
         <v>19</v>
@@ -9738,7 +9738,7 @@
     </row>
     <row r="29" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="18">
         <v>18.399999999999999</v>
@@ -9816,7 +9816,7 @@
         <v>34.700000000000003</v>
       </c>
       <c r="AA29" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB29" s="18">
         <v>27.7</v>
@@ -9843,7 +9843,7 @@
         <v>36.9</v>
       </c>
       <c r="AJ29" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AK29" s="18">
         <v>25</v>
@@ -9861,7 +9861,7 @@
         <v>27.2</v>
       </c>
       <c r="AP29" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AQ29" s="19">
         <v>18.3</v>
@@ -9879,7 +9879,7 @@
         <v>36.1</v>
       </c>
       <c r="AV29" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW29" s="18">
         <v>27.7</v>
@@ -9906,7 +9906,7 @@
         <v>34.6</v>
       </c>
       <c r="BE29" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BF29" s="18">
         <v>22.7</v>
@@ -9921,7 +9921,7 @@
         <v>28</v>
       </c>
       <c r="BJ29" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BK29" s="19">
         <v>19.7</v>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="30" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="31" spans="1:65" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="14">
         <v>1543</v>
@@ -10011,22 +10011,22 @@
         <v>597</v>
       </c>
       <c r="F31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="I31" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="J31" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="K31" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="L31" s="14">
         <v>1338</v>
@@ -10062,7 +10062,7 @@
         <v>708</v>
       </c>
       <c r="W31" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="X31" s="23">
         <v>391</v>
@@ -10077,40 +10077,40 @@
         <v>19</v>
       </c>
       <c r="AB31" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC31" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="AC31" s="23" t="s">
+      <c r="AD31" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="AD31" s="23" t="s">
+      <c r="AE31" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="AE31" s="23" t="s">
+      <c r="AF31" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="AF31" s="23" t="s">
-        <v>437</v>
-      </c>
       <c r="AG31" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="AH31" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI31" s="23" t="s">
         <v>475</v>
-      </c>
-      <c r="AH31" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI31" s="23" t="s">
-        <v>476</v>
       </c>
       <c r="AJ31" s="23" t="s">
         <v>19</v>
       </c>
       <c r="AK31" s="23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AL31" s="23">
         <v>376</v>
       </c>
       <c r="AM31" s="23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AN31" s="23">
         <v>820</v>
@@ -10125,7 +10125,7 @@
         <v>662</v>
       </c>
       <c r="AR31" s="23" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AS31" s="23">
         <v>368</v>
@@ -10143,25 +10143,25 @@
         <v>973</v>
       </c>
       <c r="AX31" s="23" t="s">
+        <v>762</v>
+      </c>
+      <c r="AY31" s="23" t="s">
         <v>763</v>
       </c>
-      <c r="AY31" s="23" t="s">
+      <c r="AZ31" s="23" t="s">
         <v>764</v>
       </c>
-      <c r="AZ31" s="23" t="s">
+      <c r="BA31" s="23" t="s">
         <v>765</v>
       </c>
-      <c r="BA31" s="23" t="s">
-        <v>766</v>
-      </c>
       <c r="BB31" s="23" t="s">
+        <v>803</v>
+      </c>
+      <c r="BC31" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="BC31" s="23" t="s">
+      <c r="BD31" s="23" t="s">
         <v>805</v>
-      </c>
-      <c r="BD31" s="23" t="s">
-        <v>806</v>
       </c>
       <c r="BE31" s="23" t="s">
         <v>19</v>
@@ -10187,7 +10187,7 @@
     </row>
     <row r="32" spans="1:65" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="18">
         <v>29.7</v>
@@ -10265,7 +10265,7 @@
         <v>56.8</v>
       </c>
       <c r="AA32" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB32" s="18">
         <v>44.4</v>
@@ -10292,7 +10292,7 @@
         <v>63.5</v>
       </c>
       <c r="AJ32" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AK32" s="18">
         <v>45.6</v>
@@ -10310,7 +10310,7 @@
         <v>30</v>
       </c>
       <c r="AP32" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AQ32" s="19">
         <v>41.3</v>
@@ -10328,7 +10328,7 @@
         <v>57.8</v>
       </c>
       <c r="AV32" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW32" s="18">
         <v>43.2</v>
@@ -10355,7 +10355,7 @@
         <v>59.9</v>
       </c>
       <c r="BE32" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BF32" s="18">
         <v>44.8</v>
@@ -10370,7 +10370,7 @@
         <v>28.9</v>
       </c>
       <c r="BJ32" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BK32" s="19">
         <v>41.7</v>
@@ -10378,198 +10378,198 @@
     </row>
     <row r="33" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V33" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD33" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AE33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AG33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AJ33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AK33" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AM33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AO33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AQ33" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AT33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AU33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AX33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AY33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AZ33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BA33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BB33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BC33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BD33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BE33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BF33" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="BG33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BH33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BI33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BJ33" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BK33" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -10636,7 +10636,7 @@
     </row>
     <row r="35" spans="1:63" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" s="18">
         <v>1.6</v>
@@ -10827,7 +10827,7 @@
     </row>
     <row r="36" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="18">
         <v>30.5</v>
@@ -10905,7 +10905,7 @@
         <v>54.8</v>
       </c>
       <c r="AA36" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB36" s="18">
         <v>46.6</v>
@@ -10932,7 +10932,7 @@
         <v>69.3</v>
       </c>
       <c r="AJ36" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AK36" s="18">
         <v>38.700000000000003</v>
@@ -10950,7 +10950,7 @@
         <v>34.799999999999997</v>
       </c>
       <c r="AP36" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AQ36" s="19">
         <v>42.1</v>
@@ -10968,7 +10968,7 @@
         <v>56.3</v>
       </c>
       <c r="AV36" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW36" s="18">
         <v>47.9</v>
@@ -10995,7 +10995,7 @@
         <v>58.2</v>
       </c>
       <c r="BE36" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BF36" s="18">
         <v>41</v>
@@ -11010,7 +11010,7 @@
         <v>32.5</v>
       </c>
       <c r="BJ36" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BK36" s="19">
         <v>43.7</v>
@@ -11018,198 +11018,198 @@
     </row>
     <row r="37" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>126</v>
-      </c>
       <c r="H37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V37" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF37" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AJ37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AK37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AL37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AM37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AN37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AO37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AP37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AQ37" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AR37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AS37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AT37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AU37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AV37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AX37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AY37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AZ37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BA37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BB37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BC37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BD37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BE37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BF37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BG37" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="BH37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BI37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BJ37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BK37" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:63" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -11276,7 +11276,7 @@
     </row>
     <row r="39" spans="1:63" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" s="18">
         <v>7.6</v>
@@ -11467,7 +11467,7 @@
     </row>
     <row r="40" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="18">
         <v>146.9</v>
@@ -11545,7 +11545,7 @@
         <v>105.9</v>
       </c>
       <c r="AA40" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB40" s="18">
         <v>144.69999999999999</v>
@@ -11572,7 +11572,7 @@
         <v>187.7</v>
       </c>
       <c r="AJ40" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AK40" s="18">
         <v>126</v>
@@ -11590,7 +11590,7 @@
         <v>156.4</v>
       </c>
       <c r="AP40" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AQ40" s="19">
         <v>145.6</v>
@@ -11608,7 +11608,7 @@
         <v>106.4</v>
       </c>
       <c r="AV40" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW40" s="18">
         <v>144.69999999999999</v>
@@ -11635,7 +11635,7 @@
         <v>205.8</v>
       </c>
       <c r="BE40" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BF40" s="18">
         <v>120</v>
@@ -11650,7 +11650,7 @@
         <v>165.1</v>
       </c>
       <c r="BJ40" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BK40" s="19">
         <v>148.9</v>
@@ -11658,198 +11658,198 @@
     </row>
     <row r="41" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="C41" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="D41" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="E41" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="F41" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="G41" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="H41" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="I41" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I41" s="23" t="s">
+      <c r="J41" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="K41" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="K41" s="23" t="s">
-        <v>138</v>
-      </c>
       <c r="L41" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="M41" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="M41" s="23" t="s">
+      <c r="N41" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="N41" s="23" t="s">
+      <c r="O41" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="O41" s="23" t="s">
+      <c r="P41" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="P41" s="23" t="s">
+      <c r="Q41" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="R41" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="Q41" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="R41" s="23" t="s">
+      <c r="S41" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="S41" s="23" t="s">
+      <c r="T41" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="T41" s="23" t="s">
+      <c r="U41" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="U41" s="23" t="s">
+      <c r="V41" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="V41" s="24" t="s">
-        <v>228</v>
-      </c>
       <c r="W41" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="X41" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y41" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="X41" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y41" s="23" t="s">
+      <c r="Z41" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="Z41" s="23" t="s">
+      <c r="AA41" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="AA41" s="23" t="s">
+      <c r="AB41" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="AB41" s="23" t="s">
+      <c r="AC41" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="AC41" s="23" t="s">
+      <c r="AD41" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="AD41" s="23" t="s">
+      <c r="AE41" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="AE41" s="23" t="s">
+      <c r="AF41" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="AF41" s="23" t="s">
-        <v>488</v>
-      </c>
       <c r="AG41" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="AH41" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="AH41" s="23" t="s">
+      <c r="AI41" s="23" t="s">
         <v>551</v>
       </c>
-      <c r="AI41" s="23" t="s">
+      <c r="AJ41" s="23" t="s">
         <v>552</v>
       </c>
-      <c r="AJ41" s="23" t="s">
+      <c r="AK41" s="23" t="s">
         <v>553</v>
       </c>
-      <c r="AK41" s="23" t="s">
+      <c r="AL41" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="AL41" s="23" t="s">
+      <c r="AM41" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="AM41" s="23" t="s">
+      <c r="AN41" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="AN41" s="23" t="s">
+      <c r="AO41" s="23" t="s">
         <v>557</v>
       </c>
-      <c r="AO41" s="23" t="s">
+      <c r="AP41" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="AP41" s="23" t="s">
+      <c r="AQ41" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="AQ41" s="24" t="s">
-        <v>560</v>
-      </c>
       <c r="AR41" s="23" t="s">
+        <v>807</v>
+      </c>
+      <c r="AS41" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="AS41" s="23" t="s">
+      <c r="AT41" s="23" t="s">
         <v>809</v>
       </c>
-      <c r="AT41" s="23" t="s">
+      <c r="AU41" s="23" t="s">
         <v>810</v>
       </c>
-      <c r="AU41" s="23" t="s">
+      <c r="AV41" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="AV41" s="23" t="s">
+      <c r="AW41" s="23" t="s">
         <v>812</v>
       </c>
-      <c r="AW41" s="23" t="s">
+      <c r="AX41" s="23" t="s">
         <v>813</v>
       </c>
-      <c r="AX41" s="23" t="s">
+      <c r="AY41" s="23" t="s">
         <v>814</v>
       </c>
-      <c r="AY41" s="23" t="s">
+      <c r="AZ41" s="23" t="s">
         <v>815</v>
       </c>
-      <c r="AZ41" s="23" t="s">
+      <c r="BA41" s="23" t="s">
         <v>816</v>
-      </c>
-      <c r="BA41" s="23" t="s">
-        <v>817</v>
       </c>
       <c r="BB41" s="23">
         <v>137582</v>
       </c>
       <c r="BC41" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="BD41" s="23" t="s">
         <v>883</v>
-      </c>
-      <c r="BD41" s="23" t="s">
-        <v>884</v>
       </c>
       <c r="BE41" s="23">
         <v>34481</v>
       </c>
       <c r="BF41" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BG41" s="23" t="s">
+        <v>884</v>
+      </c>
+      <c r="BH41" s="23" t="s">
         <v>885</v>
       </c>
-      <c r="BH41" s="23" t="s">
+      <c r="BI41" s="23" t="s">
         <v>886</v>
       </c>
-      <c r="BI41" s="23" t="s">
+      <c r="BJ41" s="23" t="s">
         <v>887</v>
       </c>
-      <c r="BJ41" s="23" t="s">
+      <c r="BK41" s="24" t="s">
         <v>888</v>
-      </c>
-      <c r="BK41" s="24" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="42" spans="1:63" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -11916,228 +11916,228 @@
     </row>
     <row r="43" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="C43" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="23" t="s">
+      <c r="E43" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="F43" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="G43" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="H43" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="I43" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I43" s="23" t="s">
+      <c r="J43" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="J43" s="23" t="s">
-        <v>148</v>
-      </c>
       <c r="K43" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L43" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="M43" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="M43" s="23" t="s">
+      <c r="N43" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="N43" s="23" t="s">
+      <c r="O43" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="O43" s="23" t="s">
+      <c r="P43" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="P43" s="23" t="s">
+      <c r="Q43" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="R43" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="Q43" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R43" s="23" t="s">
+      <c r="S43" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="S43" s="23" t="s">
+      <c r="T43" s="23" t="s">
         <v>235</v>
-      </c>
-      <c r="T43" s="23" t="s">
-        <v>236</v>
       </c>
       <c r="U43" s="23">
         <v>48787</v>
       </c>
       <c r="V43" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="W43" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="X43" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y43" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="X43" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y43" s="23" t="s">
+      <c r="Z43" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="Z43" s="23" t="s">
+      <c r="AA43" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="AA43" s="23" t="s">
+      <c r="AB43" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="AB43" s="23" t="s">
+      <c r="AC43" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="AC43" s="23" t="s">
+      <c r="AD43" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="AD43" s="23" t="s">
+      <c r="AE43" s="23" t="s">
         <v>495</v>
       </c>
-      <c r="AE43" s="23" t="s">
+      <c r="AF43" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="AF43" s="23" t="s">
-        <v>497</v>
-      </c>
       <c r="AG43" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="AH43" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="AH43" s="23" t="s">
-        <v>551</v>
-      </c>
       <c r="AI43" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="AJ43" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="AJ43" s="23" t="s">
+      <c r="AK43" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="AK43" s="23" t="s">
+      <c r="AL43" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="AL43" s="23" t="s">
+      <c r="AM43" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="AM43" s="23" t="s">
+      <c r="AN43" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="AN43" s="23" t="s">
+      <c r="AO43" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="AO43" s="23" t="s">
+      <c r="AP43" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="AP43" s="23" t="s">
+      <c r="AQ43" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="AQ43" s="24" t="s">
-        <v>569</v>
-      </c>
       <c r="AR43" s="23" t="s">
+        <v>817</v>
+      </c>
+      <c r="AS43" s="23" t="s">
         <v>818</v>
       </c>
-      <c r="AS43" s="23" t="s">
+      <c r="AT43" s="23" t="s">
         <v>819</v>
       </c>
-      <c r="AT43" s="23" t="s">
+      <c r="AU43" s="23" t="s">
         <v>820</v>
       </c>
-      <c r="AU43" s="23" t="s">
+      <c r="AV43" s="23" t="s">
         <v>821</v>
       </c>
-      <c r="AV43" s="23" t="s">
+      <c r="AW43" s="23" t="s">
         <v>822</v>
       </c>
-      <c r="AW43" s="23" t="s">
+      <c r="AX43" s="23" t="s">
         <v>823</v>
       </c>
-      <c r="AX43" s="23" t="s">
+      <c r="AY43" s="23" t="s">
         <v>824</v>
       </c>
-      <c r="AY43" s="23" t="s">
+      <c r="AZ43" s="23" t="s">
         <v>825</v>
       </c>
-      <c r="AZ43" s="23" t="s">
+      <c r="BA43" s="23" t="s">
         <v>826</v>
       </c>
-      <c r="BA43" s="23" t="s">
-        <v>827</v>
-      </c>
       <c r="BB43" s="23" t="s">
+        <v>889</v>
+      </c>
+      <c r="BC43" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="BD43" s="23" t="s">
         <v>890</v>
       </c>
-      <c r="BC43" s="23" t="s">
-        <v>883</v>
-      </c>
-      <c r="BD43" s="23" t="s">
+      <c r="BE43" s="23" t="s">
         <v>891</v>
       </c>
-      <c r="BE43" s="23" t="s">
+      <c r="BF43" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG43" s="23" t="s">
         <v>892</v>
       </c>
-      <c r="BF43" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="BG43" s="23" t="s">
+      <c r="BH43" s="23" t="s">
         <v>893</v>
       </c>
-      <c r="BH43" s="23" t="s">
+      <c r="BI43" s="23" t="s">
         <v>894</v>
       </c>
-      <c r="BI43" s="23" t="s">
+      <c r="BJ43" s="23" t="s">
         <v>895</v>
       </c>
-      <c r="BJ43" s="23" t="s">
+      <c r="BK43" s="24" t="s">
         <v>896</v>
-      </c>
-      <c r="BK43" s="24" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="44" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="C44" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="23" t="s">
         <v>150</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>151</v>
       </c>
       <c r="E44" s="23">
         <v>693</v>
       </c>
       <c r="F44" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="H44" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="I44" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="J44" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="I44" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="J44" s="23" t="s">
-        <v>155</v>
-      </c>
       <c r="K44" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L44" s="23">
         <v>629</v>
@@ -12146,40 +12146,40 @@
         <v>421</v>
       </c>
       <c r="N44" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="O44" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="O44" s="23" t="s">
+      <c r="P44" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q44" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="R44" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="P44" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q44" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R44" s="23" t="s">
+      <c r="S44" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="S44" s="23" t="s">
+      <c r="T44" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="T44" s="23" t="s">
+      <c r="U44" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="V44" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="U44" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="V44" s="24" t="s">
-        <v>243</v>
-      </c>
       <c r="W44" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="X44" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="23" t="s">
         <v>498</v>
-      </c>
-      <c r="X44" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="23" t="s">
-        <v>499</v>
       </c>
       <c r="Z44" s="23">
         <v>177</v>
@@ -12209,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="23" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AJ44" s="23">
         <v>883</v>
@@ -12221,13 +12221,13 @@
         <v>268</v>
       </c>
       <c r="AM44" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AN44" s="23">
         <v>355</v>
       </c>
       <c r="AO44" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AP44" s="23">
         <v>396</v>
@@ -12236,13 +12236,13 @@
         <v>475</v>
       </c>
       <c r="AR44" s="23" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AS44" s="23">
         <v>264</v>
       </c>
       <c r="AT44" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AU44" s="23">
         <v>441</v>
@@ -12254,31 +12254,31 @@
         <v>582</v>
       </c>
       <c r="AX44" s="23" t="s">
+        <v>829</v>
+      </c>
+      <c r="AY44" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="AY44" s="23" t="s">
+      <c r="AZ44" s="23" t="s">
         <v>831</v>
       </c>
-      <c r="AZ44" s="23" t="s">
+      <c r="BA44" s="23" t="s">
         <v>832</v>
       </c>
-      <c r="BA44" s="23" t="s">
-        <v>833</v>
-      </c>
       <c r="BB44" s="23" t="s">
+        <v>897</v>
+      </c>
+      <c r="BC44" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD44" s="23" t="s">
         <v>898</v>
-      </c>
-      <c r="BC44" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD44" s="23" t="s">
-        <v>899</v>
       </c>
       <c r="BE44" s="23">
         <v>3306</v>
       </c>
       <c r="BF44" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BG44" s="23">
         <v>418</v>
@@ -12287,18 +12287,18 @@
         <v>481</v>
       </c>
       <c r="BI44" s="23" t="s">
+        <v>899</v>
+      </c>
+      <c r="BJ44" s="23" t="s">
         <v>900</v>
       </c>
-      <c r="BJ44" s="23" t="s">
+      <c r="BK44" s="24" t="s">
         <v>901</v>
-      </c>
-      <c r="BK44" s="24" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="45" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -12365,103 +12365,103 @@
     </row>
     <row r="46" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="D46" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="E46" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="F46" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="G46" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="H46" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="I46" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="J46" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="J46" s="18" t="s">
+      <c r="K46" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="K46" s="18" t="s">
-        <v>167</v>
-      </c>
       <c r="L46" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="M46" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="M46" s="18" t="s">
+      <c r="N46" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="N46" s="18" t="s">
+      <c r="O46" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="O46" s="18" t="s">
+      <c r="P46" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="P46" s="18" t="s">
+      <c r="Q46" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="Q46" s="18" t="s">
+      <c r="R46" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="R46" s="18" t="s">
+      <c r="S46" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="S46" s="18" t="s">
+      <c r="T46" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="T46" s="18" t="s">
+      <c r="U46" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="U46" s="18" t="s">
+      <c r="V46" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="V46" s="19" t="s">
-        <v>254</v>
-      </c>
       <c r="W46" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="X46" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="X46" s="18" t="s">
+      <c r="Y46" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="Y46" s="18" t="s">
+      <c r="Z46" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="Z46" s="18" t="s">
+      <c r="AA46" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="AA46" s="18" t="s">
+      <c r="AB46" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="AB46" s="18" t="s">
+      <c r="AC46" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="AC46" s="18" t="s">
+      <c r="AD46" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="AD46" s="18" t="s">
+      <c r="AE46" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="AE46" s="18" t="s">
+      <c r="AF46" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="AF46" s="18" t="s">
-        <v>509</v>
-      </c>
       <c r="AG46" s="18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AH46" s="18">
         <v>1471.8</v>
@@ -12494,69 +12494,69 @@
         <v>1748.2</v>
       </c>
       <c r="AR46" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="AS46" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="AS46" s="18" t="s">
+      <c r="AT46" s="18" t="s">
         <v>835</v>
       </c>
-      <c r="AT46" s="18" t="s">
+      <c r="AU46" s="18" t="s">
         <v>836</v>
       </c>
-      <c r="AU46" s="18" t="s">
+      <c r="AV46" s="18" t="s">
         <v>837</v>
       </c>
-      <c r="AV46" s="18" t="s">
+      <c r="AW46" s="18" t="s">
         <v>838</v>
       </c>
-      <c r="AW46" s="18" t="s">
+      <c r="AX46" s="18" t="s">
         <v>839</v>
       </c>
-      <c r="AX46" s="18" t="s">
+      <c r="AY46" s="18" t="s">
         <v>840</v>
       </c>
-      <c r="AY46" s="18" t="s">
+      <c r="AZ46" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="AZ46" s="18" t="s">
+      <c r="BA46" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="BA46" s="18" t="s">
-        <v>843</v>
-      </c>
       <c r="BB46" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="BC46" s="18" t="s">
         <v>903</v>
       </c>
-      <c r="BC46" s="18" t="s">
+      <c r="BD46" s="18" t="s">
         <v>904</v>
       </c>
-      <c r="BD46" s="18" t="s">
+      <c r="BE46" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="BE46" s="18" t="s">
+      <c r="BF46" s="18" t="s">
         <v>906</v>
       </c>
-      <c r="BF46" s="18" t="s">
+      <c r="BG46" s="18" t="s">
         <v>907</v>
       </c>
-      <c r="BG46" s="18" t="s">
+      <c r="BH46" s="18" t="s">
         <v>908</v>
       </c>
-      <c r="BH46" s="18" t="s">
+      <c r="BI46" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="BI46" s="18" t="s">
+      <c r="BJ46" s="18" t="s">
         <v>910</v>
       </c>
-      <c r="BJ46" s="18" t="s">
+      <c r="BK46" s="19" t="s">
         <v>911</v>
-      </c>
-      <c r="BK46" s="19" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="47" spans="1:63" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47" s="18">
         <v>15.9</v>
@@ -12747,7 +12747,7 @@
     </row>
     <row r="48" spans="1:63" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -12814,7 +12814,7 @@
     </row>
     <row r="49" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B49" s="18">
         <v>2.2000000000000002</v>
@@ -12862,7 +12862,7 @@
         <v>0.8</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R49" s="18">
         <v>28</v>
@@ -13005,7 +13005,7 @@
     </row>
     <row r="50" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B50" s="18">
         <v>6.8</v>
@@ -13196,7 +13196,7 @@
     </row>
     <row r="51" spans="1:63" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -13209,7 +13209,7 @@
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M51" s="12"/>
       <c r="N51" s="12"/>
@@ -13232,7 +13232,7 @@
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
       <c r="AG51" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AH51" s="12"/>
       <c r="AI51" s="12"/>
@@ -13255,7 +13255,7 @@
       <c r="AZ51" s="5"/>
       <c r="BA51" s="5"/>
       <c r="BB51" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="BC51" s="12"/>
       <c r="BD51" s="12"/>
@@ -13269,389 +13269,389 @@
     </row>
     <row r="52" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="C52" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="D52" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="E52" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="F52" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="G52" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="H52" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="I52" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="I52" s="18" t="s">
+      <c r="J52" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="J52" s="18" t="s">
+      <c r="K52" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="K52" s="18" t="s">
-        <v>183</v>
-      </c>
       <c r="L52" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="M52" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="M52" s="18" t="s">
+      <c r="N52" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="N52" s="18" t="s">
+      <c r="O52" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="O52" s="18" t="s">
+      <c r="P52" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="P52" s="18" t="s">
+      <c r="Q52" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="Q52" s="18" t="s">
+      <c r="R52" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="R52" s="18" t="s">
+      <c r="S52" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="S52" s="18" t="s">
+      <c r="T52" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="T52" s="18" t="s">
+      <c r="U52" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="U52" s="18" t="s">
+      <c r="V52" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="V52" s="19" t="s">
-        <v>266</v>
-      </c>
       <c r="W52" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="X52" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="X52" s="18" t="s">
+      <c r="Y52" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="Y52" s="18" t="s">
+      <c r="Z52" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="Z52" s="18" t="s">
+      <c r="AA52" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="AA52" s="18" t="s">
+      <c r="AB52" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="AB52" s="18" t="s">
+      <c r="AC52" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="AC52" s="18" t="s">
+      <c r="AD52" s="18" t="s">
         <v>516</v>
       </c>
-      <c r="AD52" s="18" t="s">
+      <c r="AE52" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="AE52" s="18" t="s">
+      <c r="AF52" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="AF52" s="18" t="s">
-        <v>519</v>
-      </c>
       <c r="AG52" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="AH52" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="AH52" s="18" t="s">
+      <c r="AI52" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="AI52" s="18" t="s">
+      <c r="AJ52" s="18" t="s">
         <v>577</v>
       </c>
-      <c r="AJ52" s="18" t="s">
+      <c r="AK52" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="AK52" s="18" t="s">
+      <c r="AL52" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="AL52" s="18" t="s">
+      <c r="AM52" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="AM52" s="18" t="s">
+      <c r="AN52" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="AN52" s="18" t="s">
+      <c r="AO52" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="AO52" s="18" t="s">
+      <c r="AP52" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="AP52" s="18" t="s">
+      <c r="AQ52" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="AQ52" s="19" t="s">
-        <v>585</v>
-      </c>
       <c r="AR52" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="AS52" s="18" t="s">
         <v>844</v>
       </c>
-      <c r="AS52" s="18" t="s">
+      <c r="AT52" s="18" t="s">
         <v>845</v>
       </c>
-      <c r="AT52" s="18" t="s">
+      <c r="AU52" s="18" t="s">
         <v>846</v>
       </c>
-      <c r="AU52" s="18" t="s">
+      <c r="AV52" s="18" t="s">
         <v>847</v>
       </c>
-      <c r="AV52" s="18" t="s">
+      <c r="AW52" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="AW52" s="18" t="s">
+      <c r="AX52" s="18" t="s">
         <v>849</v>
       </c>
-      <c r="AX52" s="18" t="s">
+      <c r="AY52" s="18" t="s">
         <v>850</v>
       </c>
-      <c r="AY52" s="18" t="s">
+      <c r="AZ52" s="18" t="s">
         <v>851</v>
       </c>
-      <c r="AZ52" s="18" t="s">
+      <c r="BA52" s="18" t="s">
         <v>852</v>
       </c>
-      <c r="BA52" s="18" t="s">
-        <v>853</v>
-      </c>
       <c r="BB52" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="BC52" s="18" t="s">
         <v>913</v>
       </c>
-      <c r="BC52" s="18" t="s">
+      <c r="BD52" s="18" t="s">
         <v>914</v>
       </c>
-      <c r="BD52" s="18" t="s">
+      <c r="BE52" s="18" t="s">
         <v>915</v>
       </c>
-      <c r="BE52" s="18" t="s">
+      <c r="BF52" s="18" t="s">
         <v>916</v>
       </c>
-      <c r="BF52" s="18" t="s">
+      <c r="BG52" s="18" t="s">
         <v>917</v>
       </c>
-      <c r="BG52" s="18" t="s">
+      <c r="BH52" s="18" t="s">
         <v>918</v>
       </c>
-      <c r="BH52" s="18" t="s">
+      <c r="BI52" s="18" t="s">
         <v>919</v>
       </c>
-      <c r="BI52" s="18" t="s">
+      <c r="BJ52" s="18" t="s">
         <v>920</v>
       </c>
-      <c r="BJ52" s="18" t="s">
+      <c r="BK52" s="19" t="s">
         <v>921</v>
-      </c>
-      <c r="BK52" s="19" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="53" spans="1:63" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="C53" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="D53" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="E53" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="F53" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="G53" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="H53" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="I53" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="I53" s="18" t="s">
+      <c r="J53" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="J53" s="18" t="s">
+      <c r="K53" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="K53" s="18" t="s">
-        <v>194</v>
-      </c>
       <c r="L53" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="M53" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="M53" s="18" t="s">
+      <c r="N53" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="N53" s="18" t="s">
+      <c r="O53" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="O53" s="18" t="s">
+      <c r="P53" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="P53" s="18" t="s">
+      <c r="Q53" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="Q53" s="18" t="s">
+      <c r="R53" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="R53" s="18" t="s">
+      <c r="S53" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="S53" s="18" t="s">
+      <c r="T53" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="T53" s="18" t="s">
+      <c r="U53" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="U53" s="18" t="s">
+      <c r="V53" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="V53" s="19" t="s">
-        <v>277</v>
-      </c>
       <c r="W53" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="X53" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="X53" s="18" t="s">
+      <c r="Y53" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="Y53" s="18" t="s">
+      <c r="Z53" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="Z53" s="18" t="s">
+      <c r="AA53" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="AA53" s="18" t="s">
+      <c r="AB53" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="AB53" s="18" t="s">
+      <c r="AC53" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="AC53" s="18" t="s">
+      <c r="AD53" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="AD53" s="18" t="s">
+      <c r="AE53" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="AE53" s="18" t="s">
+      <c r="AF53" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="AF53" s="18" t="s">
-        <v>529</v>
-      </c>
       <c r="AG53" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="AH53" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="AH53" s="18" t="s">
+      <c r="AI53" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="AI53" s="18" t="s">
+      <c r="AJ53" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="AJ53" s="18" t="s">
+      <c r="AK53" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="AK53" s="18" t="s">
+      <c r="AL53" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="AL53" s="18" t="s">
+      <c r="AM53" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="AM53" s="18" t="s">
+      <c r="AN53" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="AN53" s="18" t="s">
+      <c r="AO53" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="AO53" s="18" t="s">
+      <c r="AP53" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="AP53" s="18" t="s">
+      <c r="AQ53" s="19" t="s">
         <v>595</v>
       </c>
-      <c r="AQ53" s="19" t="s">
-        <v>596</v>
-      </c>
       <c r="AR53" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="AS53" s="18" t="s">
         <v>854</v>
       </c>
-      <c r="AS53" s="18" t="s">
+      <c r="AT53" s="18" t="s">
         <v>855</v>
       </c>
-      <c r="AT53" s="18" t="s">
+      <c r="AU53" s="18" t="s">
         <v>856</v>
       </c>
-      <c r="AU53" s="18" t="s">
+      <c r="AV53" s="18" t="s">
         <v>857</v>
       </c>
-      <c r="AV53" s="18" t="s">
+      <c r="AW53" s="18" t="s">
         <v>858</v>
       </c>
-      <c r="AW53" s="18" t="s">
+      <c r="AX53" s="18" t="s">
         <v>859</v>
       </c>
-      <c r="AX53" s="18" t="s">
+      <c r="AY53" s="18" t="s">
         <v>860</v>
       </c>
-      <c r="AY53" s="18" t="s">
+      <c r="AZ53" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="AZ53" s="18" t="s">
+      <c r="BA53" s="18" t="s">
         <v>862</v>
       </c>
-      <c r="BA53" s="18" t="s">
-        <v>863</v>
-      </c>
       <c r="BB53" s="18" t="s">
+        <v>922</v>
+      </c>
+      <c r="BC53" s="18" t="s">
         <v>923</v>
       </c>
-      <c r="BC53" s="18" t="s">
+      <c r="BD53" s="18" t="s">
         <v>924</v>
       </c>
-      <c r="BD53" s="18" t="s">
+      <c r="BE53" s="18" t="s">
         <v>925</v>
       </c>
-      <c r="BE53" s="18" t="s">
+      <c r="BF53" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="BF53" s="18" t="s">
+      <c r="BG53" s="18" t="s">
         <v>927</v>
       </c>
-      <c r="BG53" s="18" t="s">
+      <c r="BH53" s="18" t="s">
         <v>928</v>
       </c>
-      <c r="BH53" s="18" t="s">
+      <c r="BI53" s="18" t="s">
         <v>929</v>
       </c>
-      <c r="BI53" s="18" t="s">
+      <c r="BJ53" s="18" t="s">
         <v>930</v>
       </c>
-      <c r="BJ53" s="18" t="s">
+      <c r="BK53" s="19" t="s">
         <v>931</v>
-      </c>
-      <c r="BK53" s="19" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="54" spans="1:63" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B54" s="18">
         <v>42.3</v>
@@ -13842,7 +13842,7 @@
     </row>
     <row r="55" spans="1:63" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B55" s="18">
         <v>7.4</v>
@@ -14033,7 +14033,7 @@
     </row>
     <row r="56" spans="1:63" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -14046,7 +14046,7 @@
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
@@ -14069,7 +14069,7 @@
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AH56" s="12"/>
       <c r="AI56" s="12"/>
@@ -14092,7 +14092,7 @@
       <c r="AZ56" s="5"/>
       <c r="BA56" s="5"/>
       <c r="BB56" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BC56" s="12"/>
       <c r="BD56" s="12"/>
@@ -14106,198 +14106,198 @@
     </row>
     <row r="57" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="C57" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="D57" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="E57" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="F57" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="G57" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="G57" s="23" t="s">
+      <c r="H57" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="I57" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="I57" s="23" t="s">
+      <c r="J57" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="J57" s="23" t="s">
+      <c r="K57" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="K57" s="23" t="s">
-        <v>208</v>
-      </c>
       <c r="L57" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="M57" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="M57" s="23" t="s">
+      <c r="N57" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="N57" s="23" t="s">
+      <c r="O57" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="O57" s="23" t="s">
+      <c r="P57" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="P57" s="23" t="s">
+      <c r="Q57" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="Q57" s="23" t="s">
+      <c r="R57" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="R57" s="23" t="s">
+      <c r="S57" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="S57" s="23" t="s">
+      <c r="T57" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="T57" s="23" t="s">
+      <c r="U57" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="U57" s="23" t="s">
+      <c r="V57" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="V57" s="24" t="s">
-        <v>289</v>
-      </c>
       <c r="W57" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="X57" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="X57" s="23" t="s">
+      <c r="Y57" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="Y57" s="23" t="s">
+      <c r="Z57" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="Z57" s="23" t="s">
+      <c r="AA57" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="AA57" s="23" t="s">
+      <c r="AB57" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="AB57" s="23" t="s">
+      <c r="AC57" s="23" t="s">
         <v>535</v>
       </c>
-      <c r="AC57" s="23" t="s">
+      <c r="AD57" s="23" t="s">
         <v>536</v>
       </c>
-      <c r="AD57" s="23" t="s">
+      <c r="AE57" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="AE57" s="23" t="s">
+      <c r="AF57" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="AF57" s="23" t="s">
-        <v>539</v>
-      </c>
       <c r="AG57" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="AH57" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="AH57" s="23" t="s">
+      <c r="AI57" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="AI57" s="23" t="s">
+      <c r="AJ57" s="23" t="s">
         <v>599</v>
       </c>
-      <c r="AJ57" s="23" t="s">
+      <c r="AK57" s="23" t="s">
         <v>600</v>
       </c>
-      <c r="AK57" s="23" t="s">
+      <c r="AL57" s="23" t="s">
         <v>601</v>
       </c>
-      <c r="AL57" s="23" t="s">
+      <c r="AM57" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="AM57" s="23" t="s">
+      <c r="AN57" s="23" t="s">
         <v>603</v>
       </c>
-      <c r="AN57" s="23" t="s">
+      <c r="AO57" s="23" t="s">
         <v>604</v>
       </c>
-      <c r="AO57" s="23" t="s">
+      <c r="AP57" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="AP57" s="23" t="s">
+      <c r="AQ57" s="24" t="s">
         <v>606</v>
       </c>
-      <c r="AQ57" s="24" t="s">
-        <v>607</v>
-      </c>
       <c r="AR57" s="23" t="s">
+        <v>863</v>
+      </c>
+      <c r="AS57" s="23" t="s">
         <v>864</v>
       </c>
-      <c r="AS57" s="23" t="s">
+      <c r="AT57" s="23" t="s">
         <v>865</v>
       </c>
-      <c r="AT57" s="23" t="s">
+      <c r="AU57" s="23" t="s">
         <v>866</v>
       </c>
-      <c r="AU57" s="23" t="s">
+      <c r="AV57" s="23" t="s">
         <v>867</v>
       </c>
-      <c r="AV57" s="23" t="s">
+      <c r="AW57" s="23" t="s">
         <v>868</v>
-      </c>
-      <c r="AW57" s="23" t="s">
-        <v>869</v>
       </c>
       <c r="AX57" s="23">
         <v>6953</v>
       </c>
       <c r="AY57" s="23" t="s">
+        <v>869</v>
+      </c>
+      <c r="AZ57" s="23" t="s">
         <v>870</v>
       </c>
-      <c r="AZ57" s="23" t="s">
+      <c r="BA57" s="23" t="s">
         <v>871</v>
       </c>
-      <c r="BA57" s="23" t="s">
-        <v>872</v>
-      </c>
       <c r="BB57" s="23" t="s">
+        <v>932</v>
+      </c>
+      <c r="BC57" s="23" t="s">
         <v>933</v>
       </c>
-      <c r="BC57" s="23" t="s">
+      <c r="BD57" s="23" t="s">
         <v>934</v>
       </c>
-      <c r="BD57" s="23" t="s">
+      <c r="BE57" s="23" t="s">
         <v>935</v>
       </c>
-      <c r="BE57" s="23" t="s">
+      <c r="BF57" s="23" t="s">
         <v>936</v>
       </c>
-      <c r="BF57" s="23" t="s">
+      <c r="BG57" s="23" t="s">
         <v>937</v>
       </c>
-      <c r="BG57" s="23" t="s">
+      <c r="BH57" s="23" t="s">
         <v>938</v>
       </c>
-      <c r="BH57" s="23" t="s">
+      <c r="BI57" s="23" t="s">
         <v>939</v>
       </c>
-      <c r="BI57" s="23" t="s">
+      <c r="BJ57" s="23" t="s">
         <v>940</v>
       </c>
-      <c r="BJ57" s="23" t="s">
+      <c r="BK57" s="24" t="s">
         <v>941</v>
-      </c>
-      <c r="BK57" s="24" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="58" spans="1:63" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -14310,7 +14310,7 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
@@ -14333,7 +14333,7 @@
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
       <c r="AG58" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AH58" s="12"/>
       <c r="AI58" s="12"/>
@@ -14356,7 +14356,7 @@
       <c r="AZ58" s="5"/>
       <c r="BA58" s="5"/>
       <c r="BB58" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BC58" s="12"/>
       <c r="BD58" s="12"/>
@@ -14370,7 +14370,7 @@
     </row>
     <row r="59" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -14449,7 +14449,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F60" s="18" t="s">
         <v>0</v>
@@ -14491,13 +14491,13 @@
         <v>0</v>
       </c>
       <c r="S60" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T60" s="18" t="s">
         <v>0</v>
       </c>
       <c r="U60" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V60" s="19" t="s">
         <v>0</v>
@@ -14512,7 +14512,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA60" s="21" t="s">
         <v>0</v>
@@ -14536,7 +14536,7 @@
         <v>922.8</v>
       </c>
       <c r="AH60" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI60" s="18" t="s">
         <v>0</v>
@@ -14560,7 +14560,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AQ60" s="19" t="s">
         <v>0</v>
@@ -14575,7 +14575,7 @@
         <v>0</v>
       </c>
       <c r="AU60" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AV60" s="18" t="s">
         <v>0</v>
@@ -14596,19 +14596,19 @@
         <v>0</v>
       </c>
       <c r="BB60" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BC60" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BD60" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BE60" s="18" t="s">
         <v>0</v>
       </c>
       <c r="BF60" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BG60" s="18" t="s">
         <v>0</v>
@@ -14620,7 +14620,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BK60" s="19" t="s">
         <v>0</v>
@@ -14631,243 +14631,243 @@
         <v>11</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C61" s="18">
         <v>35908.400000000001</v>
       </c>
       <c r="D61" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E61" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="F61" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="G61" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="H61" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="H61" s="18" t="s">
+      <c r="I61" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="I61" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="J61" s="18">
         <v>195612.1</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L61" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="M61" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="M61" s="18" t="s">
+      <c r="N61" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="N61" s="18" t="s">
+      <c r="O61" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="O61" s="18" t="s">
+      <c r="P61" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="P61" s="18" t="s">
+      <c r="Q61" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="Q61" s="18" t="s">
+      <c r="R61" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="R61" s="18" t="s">
+      <c r="S61" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="S61" s="18" t="s">
+      <c r="T61" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="T61" s="18" t="s">
+      <c r="U61" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="U61" s="18" t="s">
+      <c r="V61" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="V61" s="19" t="s">
-        <v>301</v>
-      </c>
       <c r="W61" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="X61" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="X61" s="18" t="s">
+      <c r="Y61" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="Y61" s="18" t="s">
+      <c r="Z61" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="Z61" s="18" t="s">
+      <c r="AA61" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="AA61" s="18" t="s">
+      <c r="AB61" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="AB61" s="18" t="s">
+      <c r="AC61" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="AC61" s="18" t="s">
+      <c r="AD61" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="AD61" s="18" t="s">
+      <c r="AE61" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="AE61" s="18" t="s">
+      <c r="AF61" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="AF61" s="18" t="s">
-        <v>549</v>
-      </c>
       <c r="AG61" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="AH61" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="AH61" s="18" t="s">
+      <c r="AI61" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="AI61" s="18" t="s">
+      <c r="AJ61" s="18" t="s">
         <v>610</v>
       </c>
-      <c r="AJ61" s="18" t="s">
+      <c r="AK61" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="AK61" s="18" t="s">
+      <c r="AL61" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="AL61" s="18" t="s">
+      <c r="AM61" s="18" t="s">
         <v>613</v>
       </c>
-      <c r="AM61" s="18" t="s">
+      <c r="AN61" s="18" t="s">
         <v>614</v>
       </c>
-      <c r="AN61" s="18" t="s">
+      <c r="AO61" s="18" t="s">
         <v>615</v>
       </c>
-      <c r="AO61" s="18" t="s">
+      <c r="AP61" s="18" t="s">
         <v>616</v>
       </c>
-      <c r="AP61" s="18" t="s">
+      <c r="AQ61" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="AQ61" s="19" t="s">
-        <v>618</v>
-      </c>
       <c r="AR61" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="AS61" s="18" t="s">
         <v>873</v>
       </c>
-      <c r="AS61" s="18" t="s">
+      <c r="AT61" s="18" t="s">
         <v>874</v>
       </c>
-      <c r="AT61" s="18" t="s">
+      <c r="AU61" s="18" t="s">
         <v>875</v>
       </c>
-      <c r="AU61" s="18" t="s">
+      <c r="AV61" s="18" t="s">
         <v>876</v>
       </c>
-      <c r="AV61" s="18" t="s">
+      <c r="AW61" s="18" t="s">
         <v>877</v>
       </c>
-      <c r="AW61" s="18" t="s">
+      <c r="AX61" s="18" t="s">
         <v>878</v>
       </c>
-      <c r="AX61" s="18" t="s">
+      <c r="AY61" s="18" t="s">
         <v>879</v>
       </c>
-      <c r="AY61" s="18" t="s">
+      <c r="AZ61" s="18" t="s">
         <v>880</v>
       </c>
-      <c r="AZ61" s="18" t="s">
+      <c r="BA61" s="18" t="s">
         <v>881</v>
       </c>
-      <c r="BA61" s="18" t="s">
-        <v>882</v>
-      </c>
       <c r="BB61" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="BC61" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="BC61" s="18" t="s">
+      <c r="BD61" s="18" t="s">
         <v>944</v>
       </c>
-      <c r="BD61" s="18" t="s">
+      <c r="BE61" s="18" t="s">
         <v>945</v>
       </c>
-      <c r="BE61" s="18" t="s">
+      <c r="BF61" s="18" t="s">
         <v>946</v>
       </c>
-      <c r="BF61" s="18" t="s">
+      <c r="BG61" s="18" t="s">
         <v>947</v>
       </c>
-      <c r="BG61" s="18" t="s">
+      <c r="BH61" s="18" t="s">
         <v>948</v>
       </c>
-      <c r="BH61" s="18" t="s">
+      <c r="BI61" s="18" t="s">
         <v>949</v>
       </c>
-      <c r="BI61" s="18" t="s">
+      <c r="BJ61" s="18" t="s">
         <v>950</v>
       </c>
-      <c r="BJ61" s="18" t="s">
+      <c r="BK61" s="19" t="s">
         <v>951</v>
-      </c>
-      <c r="BK61" s="19" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="62" spans="1:63" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B62" s="18" t="s">
         <v>302</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>303</v>
       </c>
       <c r="C62" s="18">
         <v>935.9</v>
       </c>
       <c r="D62" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="E62" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="F62" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="G62" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="G62" s="18" t="s">
+      <c r="H62" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="H62" s="18" t="s">
+      <c r="I62" s="18" t="s">
         <v>308</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>309</v>
       </c>
       <c r="J62" s="18">
         <v>9708.9</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L62" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="M62" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="M62" s="18" t="s">
+      <c r="N62" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="N62" s="18" t="s">
+      <c r="O62" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="O62" s="18" t="s">
+      <c r="P62" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="P62" s="18" t="s">
+      <c r="Q62" s="18" t="s">
         <v>363</v>
-      </c>
-      <c r="Q62" s="18" t="s">
-        <v>364</v>
       </c>
       <c r="R62" s="18">
         <v>1888.4</v>
@@ -14885,135 +14885,135 @@
         <v>2557.3000000000002</v>
       </c>
       <c r="W62" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="X62" s="18">
         <v>979.4</v>
       </c>
       <c r="Y62" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="Z62" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="Z62" s="18" t="s">
+      <c r="AA62" s="18" t="s">
         <v>621</v>
       </c>
-      <c r="AA62" s="18" t="s">
+      <c r="AB62" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="AB62" s="18" t="s">
+      <c r="AC62" s="18" t="s">
         <v>623</v>
       </c>
-      <c r="AC62" s="18" t="s">
+      <c r="AD62" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="AD62" s="18" t="s">
+      <c r="AE62" s="18" t="s">
         <v>625</v>
       </c>
-      <c r="AE62" s="18" t="s">
+      <c r="AF62" s="18" t="s">
         <v>626</v>
       </c>
-      <c r="AF62" s="18" t="s">
-        <v>627</v>
-      </c>
       <c r="AG62" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="AH62" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="AH62" s="18" t="s">
+      <c r="AI62" s="18" t="s">
         <v>672</v>
       </c>
-      <c r="AI62" s="18" t="s">
+      <c r="AJ62" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="AJ62" s="18" t="s">
+      <c r="AK62" s="18" t="s">
         <v>674</v>
       </c>
-      <c r="AK62" s="18" t="s">
+      <c r="AL62" s="18" t="s">
         <v>675</v>
       </c>
-      <c r="AL62" s="18" t="s">
+      <c r="AM62" s="18" t="s">
         <v>676</v>
       </c>
-      <c r="AM62" s="18" t="s">
+      <c r="AN62" s="18" t="s">
         <v>677</v>
       </c>
-      <c r="AN62" s="18" t="s">
+      <c r="AO62" s="18" t="s">
         <v>678</v>
       </c>
-      <c r="AO62" s="18" t="s">
+      <c r="AP62" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="AP62" s="18" t="s">
+      <c r="AQ62" s="19" t="s">
         <v>680</v>
       </c>
-      <c r="AQ62" s="19" t="s">
-        <v>681</v>
-      </c>
       <c r="AR62" s="18" t="s">
+        <v>952</v>
+      </c>
+      <c r="AS62" s="18" t="s">
         <v>953</v>
       </c>
-      <c r="AS62" s="18" t="s">
+      <c r="AT62" s="18" t="s">
         <v>954</v>
       </c>
-      <c r="AT62" s="18" t="s">
+      <c r="AU62" s="18" t="s">
         <v>955</v>
       </c>
-      <c r="AU62" s="18" t="s">
+      <c r="AV62" s="18" t="s">
         <v>956</v>
       </c>
-      <c r="AV62" s="18" t="s">
+      <c r="AW62" s="18" t="s">
         <v>957</v>
       </c>
-      <c r="AW62" s="18" t="s">
+      <c r="AX62" s="18" t="s">
         <v>958</v>
       </c>
-      <c r="AX62" s="18" t="s">
+      <c r="AY62" s="18" t="s">
         <v>959</v>
       </c>
-      <c r="AY62" s="18" t="s">
+      <c r="AZ62" s="18" t="s">
         <v>960</v>
       </c>
-      <c r="AZ62" s="18" t="s">
+      <c r="BA62" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="BA62" s="18" t="s">
-        <v>962</v>
-      </c>
       <c r="BB62" s="18" t="s">
+        <v>1009</v>
+      </c>
+      <c r="BC62" s="18" t="s">
         <v>1010</v>
       </c>
-      <c r="BC62" s="18" t="s">
+      <c r="BD62" s="18" t="s">
         <v>1011</v>
       </c>
-      <c r="BD62" s="18" t="s">
+      <c r="BE62" s="18" t="s">
         <v>1012</v>
       </c>
-      <c r="BE62" s="18" t="s">
+      <c r="BF62" s="18" t="s">
         <v>1013</v>
       </c>
-      <c r="BF62" s="18" t="s">
+      <c r="BG62" s="18" t="s">
         <v>1014</v>
       </c>
-      <c r="BG62" s="18" t="s">
+      <c r="BH62" s="18" t="s">
         <v>1015</v>
       </c>
-      <c r="BH62" s="18" t="s">
+      <c r="BI62" s="18" t="s">
         <v>1016</v>
       </c>
-      <c r="BI62" s="18" t="s">
+      <c r="BJ62" s="18" t="s">
         <v>1017</v>
       </c>
-      <c r="BJ62" s="18" t="s">
+      <c r="BK62" s="19" t="s">
         <v>1018</v>
-      </c>
-      <c r="BK62" s="19" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="63" spans="1:63" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>311</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>312</v>
       </c>
       <c r="C63" s="18">
         <v>908.6</v>
@@ -15028,34 +15028,34 @@
         <v>962.1</v>
       </c>
       <c r="G63" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="H63" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="H63" s="18" t="s">
+      <c r="I63" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="I63" s="18" t="s">
+      <c r="J63" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="J63" s="18" t="s">
+      <c r="K63" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="K63" s="18" t="s">
-        <v>317</v>
-      </c>
       <c r="L63" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M63" s="18">
         <v>723.6</v>
       </c>
       <c r="N63" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="O63" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="P63" s="18" t="s">
         <v>366</v>
-      </c>
-      <c r="O63" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="P63" s="18" t="s">
-        <v>367</v>
       </c>
       <c r="Q63" s="18">
         <v>598.70000000000005</v>
@@ -15064,136 +15064,136 @@
         <v>663.3</v>
       </c>
       <c r="S63" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T63" s="18">
         <v>2079</v>
       </c>
       <c r="U63" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V63" s="19">
         <v>265.7</v>
       </c>
       <c r="W63" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="X63" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="X63" s="18" t="s">
+      <c r="Y63" s="18" t="s">
         <v>629</v>
-      </c>
-      <c r="Y63" s="18" t="s">
-        <v>630</v>
       </c>
       <c r="Z63" s="18">
         <v>307.89999999999998</v>
       </c>
       <c r="AA63" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB63" s="18" t="s">
         <v>631</v>
       </c>
-      <c r="AB63" s="18" t="s">
+      <c r="AC63" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="AC63" s="18" t="s">
+      <c r="AD63" s="18" t="s">
         <v>633</v>
       </c>
-      <c r="AD63" s="18" t="s">
+      <c r="AE63" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="AE63" s="18" t="s">
+      <c r="AF63" s="18" t="s">
         <v>635</v>
       </c>
-      <c r="AF63" s="18" t="s">
-        <v>636</v>
-      </c>
       <c r="AG63" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="AH63" s="18" t="s">
         <v>682</v>
       </c>
-      <c r="AH63" s="18" t="s">
+      <c r="AI63" s="18" t="s">
         <v>683</v>
       </c>
-      <c r="AI63" s="18" t="s">
+      <c r="AJ63" s="18" t="s">
         <v>684</v>
       </c>
-      <c r="AJ63" s="18" t="s">
+      <c r="AK63" s="18" t="s">
         <v>685</v>
-      </c>
-      <c r="AK63" s="18" t="s">
-        <v>686</v>
       </c>
       <c r="AL63" s="18">
         <v>627.5</v>
       </c>
       <c r="AM63" s="18" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AN63" s="18">
         <v>906.7</v>
       </c>
       <c r="AO63" s="18" t="s">
+        <v>687</v>
+      </c>
+      <c r="AP63" s="18" t="s">
         <v>688</v>
-      </c>
-      <c r="AP63" s="18" t="s">
-        <v>689</v>
       </c>
       <c r="AQ63" s="19">
         <v>595.1</v>
       </c>
       <c r="AR63" s="18" t="s">
+        <v>962</v>
+      </c>
+      <c r="AS63" s="18" t="s">
         <v>963</v>
       </c>
-      <c r="AS63" s="18" t="s">
+      <c r="AT63" s="18" t="s">
         <v>964</v>
-      </c>
-      <c r="AT63" s="18" t="s">
-        <v>965</v>
       </c>
       <c r="AU63" s="18">
         <v>601</v>
       </c>
       <c r="AV63" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="AW63" s="18" t="s">
         <v>966</v>
       </c>
-      <c r="AW63" s="18" t="s">
+      <c r="AX63" s="18" t="s">
         <v>967</v>
       </c>
-      <c r="AX63" s="18" t="s">
+      <c r="AY63" s="18" t="s">
         <v>968</v>
       </c>
-      <c r="AY63" s="18" t="s">
+      <c r="AZ63" s="18" t="s">
         <v>969</v>
       </c>
-      <c r="AZ63" s="18" t="s">
+      <c r="BA63" s="18" t="s">
         <v>970</v>
       </c>
-      <c r="BA63" s="18" t="s">
-        <v>971</v>
-      </c>
       <c r="BB63" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="BC63" s="18" t="s">
         <v>1020</v>
       </c>
-      <c r="BC63" s="18" t="s">
+      <c r="BD63" s="18" t="s">
         <v>1021</v>
       </c>
-      <c r="BD63" s="18" t="s">
+      <c r="BE63" s="18" t="s">
         <v>1022</v>
       </c>
-      <c r="BE63" s="18" t="s">
+      <c r="BF63" s="18" t="s">
         <v>1023</v>
-      </c>
-      <c r="BF63" s="18" t="s">
-        <v>1024</v>
       </c>
       <c r="BG63" s="18">
         <v>663</v>
       </c>
       <c r="BH63" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BI63" s="18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="BJ63" s="18" t="s">
         <v>1025</v>
-      </c>
-      <c r="BJ63" s="18" t="s">
-        <v>1026</v>
       </c>
       <c r="BK63" s="19">
         <v>636.20000000000005</v>
@@ -15201,7 +15201,7 @@
     </row>
     <row r="64" spans="1:63" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -15268,49 +15268,49 @@
     </row>
     <row r="65" spans="1:64" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B65" s="18" t="s">
         <v>319</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>320</v>
       </c>
       <c r="C65" s="18">
         <v>3673</v>
       </c>
       <c r="D65" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E65" s="18" t="s">
         <v>321</v>
-      </c>
-      <c r="E65" s="18" t="s">
-        <v>322</v>
       </c>
       <c r="F65" s="18">
         <v>351.1</v>
       </c>
       <c r="G65" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="H65" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="H65" s="18" t="s">
+      <c r="I65" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="I65" s="18" t="s">
+      <c r="J65" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="J65" s="18" t="s">
+      <c r="K65" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="K65" s="18" t="s">
-        <v>327</v>
-      </c>
       <c r="L65" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M65" s="18">
         <v>320.8</v>
       </c>
       <c r="N65" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="O65" s="18" t="s">
         <v>370</v>
-      </c>
-      <c r="O65" s="18" t="s">
-        <v>371</v>
       </c>
       <c r="P65" s="18">
         <v>864.6</v>
@@ -15319,147 +15319,147 @@
         <v>531.29999999999995</v>
       </c>
       <c r="R65" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S65" s="18">
         <v>2595</v>
       </c>
       <c r="T65" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="U65" s="18" t="s">
         <v>373</v>
-      </c>
-      <c r="U65" s="18" t="s">
-        <v>374</v>
       </c>
       <c r="V65" s="19">
         <v>437</v>
       </c>
       <c r="W65" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="X65" s="18" t="s">
         <v>637</v>
       </c>
-      <c r="X65" s="18" t="s">
+      <c r="Y65" s="18" t="s">
         <v>638</v>
       </c>
-      <c r="Y65" s="18" t="s">
+      <c r="Z65" s="18" t="s">
         <v>639</v>
-      </c>
-      <c r="Z65" s="18" t="s">
-        <v>640</v>
       </c>
       <c r="AA65" s="18">
         <v>644.70000000000005</v>
       </c>
       <c r="AB65" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="AC65" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="AC65" s="18" t="s">
+      <c r="AD65" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="AD65" s="18" t="s">
+      <c r="AE65" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="AE65" s="18" t="s">
+      <c r="AF65" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="AF65" s="18" t="s">
-        <v>645</v>
-      </c>
       <c r="AG65" s="18" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AH65" s="18">
         <v>434.2</v>
       </c>
       <c r="AI65" s="18" t="s">
+        <v>690</v>
+      </c>
+      <c r="AJ65" s="18" t="s">
         <v>691</v>
       </c>
-      <c r="AJ65" s="18" t="s">
+      <c r="AK65" s="18" t="s">
         <v>692</v>
-      </c>
-      <c r="AK65" s="18" t="s">
-        <v>693</v>
       </c>
       <c r="AL65" s="18">
         <v>399.9</v>
       </c>
       <c r="AM65" s="18" t="s">
+        <v>693</v>
+      </c>
+      <c r="AN65" s="18" t="s">
         <v>694</v>
       </c>
-      <c r="AN65" s="18" t="s">
+      <c r="AO65" s="18" t="s">
         <v>695</v>
       </c>
-      <c r="AO65" s="18" t="s">
+      <c r="AP65" s="18" t="s">
         <v>696</v>
       </c>
-      <c r="AP65" s="18" t="s">
+      <c r="AQ65" s="19" t="s">
         <v>697</v>
       </c>
-      <c r="AQ65" s="19" t="s">
-        <v>698</v>
-      </c>
       <c r="AR65" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="AS65" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="AS65" s="18" t="s">
+      <c r="AT65" s="18" t="s">
         <v>973</v>
       </c>
-      <c r="AT65" s="18" t="s">
+      <c r="AU65" s="18" t="s">
         <v>974</v>
       </c>
-      <c r="AU65" s="18" t="s">
+      <c r="AV65" s="18" t="s">
         <v>975</v>
       </c>
-      <c r="AV65" s="18" t="s">
+      <c r="AW65" s="18" t="s">
         <v>976</v>
       </c>
-      <c r="AW65" s="18" t="s">
+      <c r="AX65" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="AX65" s="18" t="s">
+      <c r="AY65" s="18" t="s">
         <v>978</v>
       </c>
-      <c r="AY65" s="18" t="s">
+      <c r="AZ65" s="18" t="s">
         <v>979</v>
       </c>
-      <c r="AZ65" s="18" t="s">
+      <c r="BA65" s="18" t="s">
         <v>980</v>
       </c>
-      <c r="BA65" s="18" t="s">
-        <v>981</v>
-      </c>
       <c r="BB65" s="18" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="BC65" s="18">
         <v>266.89999999999998</v>
       </c>
       <c r="BD65" s="18" t="s">
+        <v>1027</v>
+      </c>
+      <c r="BE65" s="18" t="s">
         <v>1028</v>
       </c>
-      <c r="BE65" s="18" t="s">
+      <c r="BF65" s="18" t="s">
         <v>1029</v>
-      </c>
-      <c r="BF65" s="18" t="s">
-        <v>1030</v>
       </c>
       <c r="BG65" s="18">
         <v>561.20000000000005</v>
       </c>
       <c r="BH65" s="18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="BI65" s="18" t="s">
         <v>1031</v>
       </c>
-      <c r="BI65" s="18" t="s">
+      <c r="BJ65" s="18" t="s">
         <v>1032</v>
       </c>
-      <c r="BJ65" s="18" t="s">
+      <c r="BK65" s="19" t="s">
         <v>1033</v>
-      </c>
-      <c r="BK65" s="19" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="66" spans="1:64" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B66" s="18">
         <v>437.7</v>
@@ -15650,7 +15650,7 @@
     </row>
     <row r="67" spans="1:64" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B67" s="23">
         <v>8571</v>
@@ -15659,31 +15659,31 @@
         <v>1637</v>
       </c>
       <c r="D67" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="E67" s="23" t="s">
         <v>330</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>331</v>
       </c>
       <c r="F67" s="23">
         <v>499</v>
       </c>
       <c r="G67" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="H67" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="I67" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="I67" s="23" t="s">
+      <c r="J67" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="J67" s="23" t="s">
+      <c r="K67" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="K67" s="23" t="s">
-        <v>336</v>
-      </c>
       <c r="L67" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M67" s="23">
         <v>192</v>
@@ -15692,31 +15692,31 @@
         <v>928</v>
       </c>
       <c r="O67" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="P67" s="23" t="s">
         <v>376</v>
-      </c>
-      <c r="P67" s="23" t="s">
-        <v>377</v>
       </c>
       <c r="Q67" s="23">
         <v>978</v>
       </c>
       <c r="R67" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S67" s="23">
         <v>734</v>
       </c>
       <c r="T67" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="U67" s="23" t="s">
         <v>379</v>
-      </c>
-      <c r="U67" s="23" t="s">
-        <v>380</v>
       </c>
       <c r="V67" s="24">
         <v>524</v>
       </c>
       <c r="W67" s="23" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="X67" s="23">
         <v>741</v>
@@ -15731,22 +15731,22 @@
         <v>365</v>
       </c>
       <c r="AB67" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC67" s="23" t="s">
         <v>647</v>
       </c>
-      <c r="AC67" s="23" t="s">
+      <c r="AD67" s="23" t="s">
         <v>648</v>
       </c>
-      <c r="AD67" s="23" t="s">
+      <c r="AE67" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="AE67" s="23" t="s">
+      <c r="AF67" s="23" t="s">
         <v>650</v>
       </c>
-      <c r="AF67" s="23" t="s">
-        <v>651</v>
-      </c>
       <c r="AG67" s="23" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AH67" s="23">
         <v>282</v>
@@ -15755,37 +15755,37 @@
         <v>479</v>
       </c>
       <c r="AJ67" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="AK67" s="23" t="s">
         <v>700</v>
-      </c>
-      <c r="AK67" s="23" t="s">
-        <v>701</v>
       </c>
       <c r="AL67" s="23">
         <v>752</v>
       </c>
       <c r="AM67" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AN67" s="23">
         <v>773</v>
       </c>
       <c r="AO67" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="AP67" s="23" t="s">
         <v>703</v>
-      </c>
-      <c r="AP67" s="23" t="s">
-        <v>704</v>
       </c>
       <c r="AQ67" s="24">
         <v>197</v>
       </c>
       <c r="AR67" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="AS67" s="23" t="s">
         <v>982</v>
       </c>
-      <c r="AS67" s="23" t="s">
+      <c r="AT67" s="23" t="s">
         <v>983</v>
-      </c>
-      <c r="AT67" s="23" t="s">
-        <v>984</v>
       </c>
       <c r="AU67" s="23">
         <v>809</v>
@@ -15794,22 +15794,22 @@
         <v>782</v>
       </c>
       <c r="AW67" s="23" t="s">
+        <v>984</v>
+      </c>
+      <c r="AX67" s="23" t="s">
         <v>985</v>
       </c>
-      <c r="AX67" s="23" t="s">
+      <c r="AY67" s="23" t="s">
         <v>986</v>
       </c>
-      <c r="AY67" s="23" t="s">
+      <c r="AZ67" s="23" t="s">
         <v>987</v>
       </c>
-      <c r="AZ67" s="23" t="s">
+      <c r="BA67" s="23" t="s">
         <v>988</v>
       </c>
-      <c r="BA67" s="23" t="s">
-        <v>989</v>
-      </c>
       <c r="BB67" s="23" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="BC67" s="23">
         <v>676</v>
@@ -15818,22 +15818,22 @@
         <v>791</v>
       </c>
       <c r="BE67" s="23" t="s">
+        <v>1035</v>
+      </c>
+      <c r="BF67" s="23" t="s">
         <v>1036</v>
       </c>
-      <c r="BF67" s="23" t="s">
+      <c r="BG67" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH67" s="23" t="s">
         <v>1037</v>
       </c>
-      <c r="BG67" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH67" s="23" t="s">
+      <c r="BI67" s="23" t="s">
         <v>1038</v>
       </c>
-      <c r="BI67" s="23" t="s">
+      <c r="BJ67" s="23" t="s">
         <v>1039</v>
-      </c>
-      <c r="BJ67" s="23" t="s">
-        <v>1040</v>
       </c>
       <c r="BK67" s="24">
         <v>24</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="68" spans="1:64" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -15908,7 +15908,7 @@
     </row>
     <row r="69" spans="1:64" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B69" s="23" t="s">
         <v>0</v>
@@ -15992,7 +15992,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="23" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AD69" s="23">
         <v>350</v>
@@ -16099,7 +16099,7 @@
     </row>
     <row r="70" spans="1:64" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B70" s="23">
         <v>792</v>
@@ -16120,10 +16120,10 @@
         <v>0</v>
       </c>
       <c r="H70" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="I70" s="23" t="s">
         <v>340</v>
-      </c>
-      <c r="I70" s="23" t="s">
-        <v>341</v>
       </c>
       <c r="J70" s="23" t="s">
         <v>0</v>
@@ -16132,7 +16132,7 @@
         <v>350</v>
       </c>
       <c r="L70" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M70" s="23" t="s">
         <v>0</v>
@@ -16144,7 +16144,7 @@
         <v>450</v>
       </c>
       <c r="P70" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q70" s="23" t="s">
         <v>0</v>
@@ -16180,7 +16180,7 @@
         <v>500</v>
       </c>
       <c r="AB70" s="23" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AC70" s="23" t="s">
         <v>0</v>
@@ -16189,7 +16189,7 @@
         <v>475</v>
       </c>
       <c r="AE70" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF70" s="23" t="s">
         <v>0</v>
@@ -16213,7 +16213,7 @@
         <v>0</v>
       </c>
       <c r="AM70" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AN70" s="23">
         <v>600</v>
@@ -16222,13 +16222,13 @@
         <v>650</v>
       </c>
       <c r="AP70" s="23" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AQ70" s="24">
         <v>925</v>
       </c>
       <c r="AR70" s="23" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AS70" s="23" t="s">
         <v>0</v>
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="AY70" s="23" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AZ70" s="23">
         <v>600</v>
@@ -16258,19 +16258,19 @@
         <v>0</v>
       </c>
       <c r="BB70" s="23" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="BC70" s="23">
         <v>850</v>
       </c>
       <c r="BD70" s="23" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="BE70" s="23" t="s">
         <v>0</v>
       </c>
       <c r="BF70" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BG70" s="23" t="s">
         <v>0</v>
@@ -16279,7 +16279,7 @@
         <v>825</v>
       </c>
       <c r="BI70" s="23" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="BJ70" s="23" t="s">
         <v>0</v>
@@ -16290,7 +16290,7 @@
     </row>
     <row r="71" spans="1:64" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B71" s="23" t="s">
         <v>0</v>
@@ -16481,7 +16481,7 @@
     </row>
     <row r="72" spans="1:64" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B72" s="23">
         <v>68</v>
@@ -16502,7 +16502,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I72" s="23" t="s">
         <v>0</v>
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="AG72" s="23" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AH72" s="23">
         <v>25</v>
@@ -16672,7 +16672,7 @@
     </row>
     <row r="73" spans="1:64" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -16739,16 +16739,16 @@
     </row>
     <row r="74" spans="1:64" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B74" s="18">
         <v>99542.2</v>
       </c>
       <c r="C74" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D74" s="18" t="s">
         <v>347</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>348</v>
       </c>
       <c r="E74" s="18">
         <v>15521</v>
@@ -16763,174 +16763,174 @@
         <v>57174.6</v>
       </c>
       <c r="I74" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="J74" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="J74" s="18" t="s">
+      <c r="K74" s="18" t="s">
         <v>350</v>
-      </c>
-      <c r="K74" s="18" t="s">
-        <v>351</v>
       </c>
       <c r="L74" s="18">
         <v>31193.1</v>
       </c>
       <c r="M74" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="N74" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="N74" s="18" t="s">
+      <c r="O74" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="O74" s="18" t="s">
+      <c r="P74" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="P74" s="18" t="s">
+      <c r="Q74" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="Q74" s="18" t="s">
+      <c r="R74" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="R74" s="18" t="s">
+      <c r="S74" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="S74" s="18" t="s">
+      <c r="T74" s="18" t="s">
         <v>389</v>
-      </c>
-      <c r="T74" s="18" t="s">
-        <v>390</v>
       </c>
       <c r="U74" s="18">
         <v>23692.7</v>
       </c>
       <c r="V74" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W74" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="X74" s="18" t="s">
         <v>654</v>
       </c>
-      <c r="X74" s="18" t="s">
+      <c r="Y74" s="18" t="s">
         <v>655</v>
       </c>
-      <c r="Y74" s="18" t="s">
+      <c r="Z74" s="18" t="s">
         <v>656</v>
       </c>
-      <c r="Z74" s="18" t="s">
+      <c r="AA74" s="18" t="s">
         <v>657</v>
       </c>
-      <c r="AA74" s="18" t="s">
+      <c r="AB74" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="AB74" s="18" t="s">
+      <c r="AC74" s="18" t="s">
         <v>659</v>
       </c>
-      <c r="AC74" s="18" t="s">
+      <c r="AD74" s="18" t="s">
         <v>660</v>
       </c>
-      <c r="AD74" s="18" t="s">
+      <c r="AE74" s="18" t="s">
         <v>661</v>
       </c>
-      <c r="AE74" s="18" t="s">
+      <c r="AF74" s="18" t="s">
         <v>662</v>
       </c>
-      <c r="AF74" s="18" t="s">
-        <v>663</v>
-      </c>
       <c r="AG74" s="18" t="s">
+        <v>706</v>
+      </c>
+      <c r="AH74" s="18" t="s">
         <v>707</v>
       </c>
-      <c r="AH74" s="18" t="s">
+      <c r="AI74" s="18" t="s">
         <v>708</v>
       </c>
-      <c r="AI74" s="18" t="s">
+      <c r="AJ74" s="18" t="s">
         <v>709</v>
       </c>
-      <c r="AJ74" s="18" t="s">
+      <c r="AK74" s="18" t="s">
         <v>710</v>
       </c>
-      <c r="AK74" s="18" t="s">
+      <c r="AL74" s="18" t="s">
         <v>711</v>
       </c>
-      <c r="AL74" s="18" t="s">
+      <c r="AM74" s="18" t="s">
         <v>712</v>
       </c>
-      <c r="AM74" s="18" t="s">
+      <c r="AN74" s="18" t="s">
         <v>713</v>
       </c>
-      <c r="AN74" s="18" t="s">
+      <c r="AO74" s="18" t="s">
         <v>714</v>
       </c>
-      <c r="AO74" s="18" t="s">
+      <c r="AP74" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="AP74" s="18" t="s">
+      <c r="AQ74" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="AQ74" s="19" t="s">
-        <v>717</v>
-      </c>
       <c r="AR74" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="AS74" s="18" t="s">
         <v>992</v>
       </c>
-      <c r="AS74" s="18" t="s">
+      <c r="AT74" s="18" t="s">
         <v>993</v>
       </c>
-      <c r="AT74" s="18" t="s">
+      <c r="AU74" s="18" t="s">
         <v>994</v>
       </c>
-      <c r="AU74" s="18" t="s">
+      <c r="AV74" s="18" t="s">
         <v>995</v>
       </c>
-      <c r="AV74" s="18" t="s">
+      <c r="AW74" s="18" t="s">
         <v>996</v>
       </c>
-      <c r="AW74" s="18" t="s">
+      <c r="AX74" s="18" t="s">
         <v>997</v>
       </c>
-      <c r="AX74" s="18" t="s">
+      <c r="AY74" s="18" t="s">
         <v>998</v>
       </c>
-      <c r="AY74" s="18" t="s">
+      <c r="AZ74" s="18" t="s">
         <v>999</v>
       </c>
-      <c r="AZ74" s="18" t="s">
+      <c r="BA74" s="18" t="s">
         <v>1000</v>
       </c>
-      <c r="BA74" s="18" t="s">
-        <v>1001</v>
-      </c>
       <c r="BB74" s="18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="BC74" s="18" t="s">
         <v>1044</v>
       </c>
-      <c r="BC74" s="18" t="s">
+      <c r="BD74" s="18" t="s">
         <v>1045</v>
       </c>
-      <c r="BD74" s="18" t="s">
+      <c r="BE74" s="18" t="s">
         <v>1046</v>
       </c>
-      <c r="BE74" s="18" t="s">
+      <c r="BF74" s="18" t="s">
         <v>1047</v>
       </c>
-      <c r="BF74" s="18" t="s">
+      <c r="BG74" s="18" t="s">
         <v>1048</v>
       </c>
-      <c r="BG74" s="18" t="s">
+      <c r="BH74" s="18" t="s">
         <v>1049</v>
       </c>
-      <c r="BH74" s="18" t="s">
+      <c r="BI74" s="18" t="s">
         <v>1050</v>
       </c>
-      <c r="BI74" s="18" t="s">
+      <c r="BJ74" s="18" t="s">
         <v>1051</v>
       </c>
-      <c r="BJ74" s="18" t="s">
+      <c r="BK74" s="19" t="s">
         <v>1052</v>
-      </c>
-      <c r="BK74" s="19" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="75" spans="1:64" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B75" s="18">
         <v>100.6</v>
@@ -17121,7 +17121,7 @@
     </row>
     <row r="76" spans="1:64" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B76" s="18">
         <v>3000.2</v>
@@ -17130,7 +17130,7 @@
         <v>512.9</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E76" s="18">
         <v>422.8</v>
@@ -17145,13 +17145,13 @@
         <v>4685.7</v>
       </c>
       <c r="I76" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="J76" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="J76" s="18" t="s">
+      <c r="K76" s="18" t="s">
         <v>356</v>
-      </c>
-      <c r="K76" s="18" t="s">
-        <v>357</v>
       </c>
       <c r="L76" s="18">
         <v>2103</v>
@@ -17160,7 +17160,7 @@
         <v>447.6</v>
       </c>
       <c r="N76" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O76" s="18">
         <v>896.9</v>
@@ -17169,150 +17169,150 @@
         <v>815.5</v>
       </c>
       <c r="Q76" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R76" s="18">
         <v>864.7</v>
       </c>
       <c r="S76" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="T76" s="18" t="s">
         <v>394</v>
-      </c>
-      <c r="T76" s="18" t="s">
-        <v>395</v>
       </c>
       <c r="U76" s="18">
         <v>797</v>
       </c>
       <c r="V76" s="19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="W76" s="18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="X76" s="18">
         <v>568.79999999999995</v>
       </c>
       <c r="Y76" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Z76" s="18">
         <v>398.4</v>
       </c>
       <c r="AA76" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AB76" s="18">
         <v>903</v>
       </c>
       <c r="AC76" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="AD76" s="18" t="s">
         <v>667</v>
       </c>
-      <c r="AD76" s="18" t="s">
+      <c r="AE76" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="AE76" s="18" t="s">
+      <c r="AF76" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="AF76" s="18" t="s">
-        <v>670</v>
-      </c>
       <c r="AG76" s="18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AH76" s="18">
         <v>460.3</v>
       </c>
       <c r="AI76" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="AJ76" s="18" t="s">
         <v>719</v>
-      </c>
-      <c r="AJ76" s="18" t="s">
-        <v>720</v>
       </c>
       <c r="AK76" s="18">
         <v>816.9</v>
       </c>
       <c r="AL76" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AM76" s="18">
         <v>942.2</v>
       </c>
       <c r="AN76" s="18" t="s">
+        <v>721</v>
+      </c>
+      <c r="AO76" s="18" t="s">
         <v>722</v>
-      </c>
-      <c r="AO76" s="18" t="s">
-        <v>723</v>
       </c>
       <c r="AP76" s="18">
         <v>693.7</v>
       </c>
       <c r="AQ76" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AR76" s="18" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AS76" s="18">
         <v>736.8</v>
       </c>
       <c r="AT76" s="18" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AU76" s="18">
         <v>488.7</v>
       </c>
       <c r="AV76" s="18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AW76" s="18" t="s">
         <v>1004</v>
       </c>
-      <c r="AW76" s="18" t="s">
+      <c r="AX76" s="18" t="s">
         <v>1005</v>
       </c>
-      <c r="AX76" s="18" t="s">
+      <c r="AY76" s="18" t="s">
         <v>1006</v>
       </c>
-      <c r="AY76" s="18" t="s">
+      <c r="AZ76" s="18" t="s">
         <v>1007</v>
       </c>
-      <c r="AZ76" s="18" t="s">
+      <c r="BA76" s="18" t="s">
         <v>1008</v>
       </c>
-      <c r="BA76" s="18" t="s">
-        <v>1009</v>
-      </c>
       <c r="BB76" s="18" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="BC76" s="18">
         <v>622.9</v>
       </c>
       <c r="BD76" s="18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="BE76" s="18" t="s">
         <v>1055</v>
       </c>
-      <c r="BE76" s="18" t="s">
+      <c r="BF76" s="18" t="s">
         <v>1056</v>
       </c>
-      <c r="BF76" s="18" t="s">
+      <c r="BG76" s="18" t="s">
         <v>1057</v>
       </c>
-      <c r="BG76" s="18" t="s">
+      <c r="BH76" s="18" t="s">
         <v>1058</v>
       </c>
-      <c r="BH76" s="18" t="s">
+      <c r="BI76" s="18" t="s">
         <v>1059</v>
       </c>
-      <c r="BI76" s="18" t="s">
+      <c r="BJ76" s="18" t="s">
         <v>1060</v>
       </c>
-      <c r="BJ76" s="18" t="s">
+      <c r="BK76" s="19" t="s">
         <v>1061</v>
-      </c>
-      <c r="BK76" s="19" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="77" spans="1:64" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B77" s="18">
         <v>135.6</v>
@@ -17336,7 +17336,7 @@
         <v>138.19999999999999</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J77" s="18">
         <v>126.7</v>
@@ -17360,7 +17360,7 @@
         <v>133.1</v>
       </c>
       <c r="Q77" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R77" s="18">
         <v>110.2</v>
